--- a/cla_public/apps/checker/tests/data/means_test.xlsx
+++ b/cla_public/apps/checker/tests/data/means_test.xlsx
@@ -4637,6 +4637,12 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
   <si>
     <t>N</t>
@@ -24541,9 +24547,15 @@
       <c s="8" r="Q129">
         <v>20000.0</v>
       </c>
-      <c s="7" r="R129"/>
-      <c s="7" r="S129"/>
-      <c s="7" r="T129"/>
+      <c t="s" s="15" r="R129">
+        <v>1543</v>
+      </c>
+      <c t="s" s="15" r="S129">
+        <v>1544</v>
+      </c>
+      <c s="15" r="T129">
+        <v>100.0</v>
+      </c>
       <c s="8" r="U129">
         <v>100000.0</v>
       </c>
@@ -24551,10 +24563,10 @@
         <v>80000.0</v>
       </c>
       <c t="s" s="3" r="W129">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c t="s" s="3" r="X129">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c s="8" r="Y129">
         <v>100.0</v>
@@ -24606,10 +24618,10 @@
         <v>20.0</v>
       </c>
       <c t="s" s="13" r="B130">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c t="s" s="17" r="C130">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c s="2" r="D130"/>
       <c s="2" r="E130"/>
@@ -24747,7 +24759,7 @@
       <c s="2" r="A132"/>
       <c s="2" r="B132"/>
       <c t="s" s="6" r="C132">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c s="2" r="D132"/>
       <c s="2" r="E132"/>
@@ -24815,45 +24827,45 @@
     </row>
     <row r="133">
       <c t="s" s="3" r="A133">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c s="2" r="B133"/>
       <c t="s" s="3" r="C133">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c s="2" r="D133"/>
       <c t="s" s="31" r="E133">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c t="s" s="32" r="F133">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c t="s" s="3" r="G133">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c t="s" s="3" r="H133">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c t="s" s="3" r="I133">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c t="s" s="3" r="J133">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c t="s" s="3" r="K133">
-        <v>1556</v>
+        <v>1558</v>
       </c>
       <c t="s" s="3" r="L133">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c t="s" s="3" r="M133">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c t="s" s="3" r="N133">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c t="s" s="3" r="O133">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c s="8" r="P133">
         <v>0.0</v>
@@ -24862,10 +24874,10 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="R133">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c t="s" s="3" r="S133">
-        <v>1562</v>
+        <v>1564</v>
       </c>
       <c s="8" r="T133">
         <v>100.0</v>
@@ -24927,45 +24939,45 @@
     </row>
     <row r="134">
       <c t="s" s="3" r="A134">
-        <v>1563</v>
+        <v>1565</v>
       </c>
       <c s="2" r="B134"/>
       <c t="s" s="3" r="C134">
-        <v>1564</v>
+        <v>1566</v>
       </c>
       <c s="2" r="D134"/>
       <c t="s" s="31" r="E134">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c t="s" s="32" r="F134">
-        <v>1566</v>
+        <v>1568</v>
       </c>
       <c t="s" s="3" r="G134">
-        <v>1567</v>
+        <v>1569</v>
       </c>
       <c t="s" s="3" r="H134">
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c t="s" s="3" r="I134">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c t="s" s="3" r="J134">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c t="s" s="3" r="K134">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c t="s" s="3" r="L134">
-        <v>1572</v>
+        <v>1574</v>
       </c>
       <c t="s" s="3" r="M134">
-        <v>1573</v>
+        <v>1575</v>
       </c>
       <c t="s" s="3" r="N134">
-        <v>1574</v>
+        <v>1576</v>
       </c>
       <c t="s" s="3" r="O134">
-        <v>1575</v>
+        <v>1577</v>
       </c>
       <c s="8" r="P134">
         <v>0.0</v>
@@ -24974,10 +24986,10 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="R134">
-        <v>1576</v>
+        <v>1578</v>
       </c>
       <c t="s" s="3" r="S134">
-        <v>1577</v>
+        <v>1579</v>
       </c>
       <c s="8" r="T134">
         <v>100.0</v>
@@ -25041,45 +25053,45 @@
     </row>
     <row r="135">
       <c t="s" s="3" r="A135">
-        <v>1578</v>
+        <v>1580</v>
       </c>
       <c s="2" r="B135"/>
       <c t="s" s="4" r="C135">
-        <v>1579</v>
+        <v>1581</v>
       </c>
       <c s="2" r="D135"/>
       <c t="s" s="31" r="E135">
-        <v>1580</v>
+        <v>1582</v>
       </c>
       <c t="s" s="32" r="F135">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c t="s" s="3" r="G135">
-        <v>1582</v>
+        <v>1584</v>
       </c>
       <c t="s" s="3" r="H135">
-        <v>1583</v>
+        <v>1585</v>
       </c>
       <c t="s" s="3" r="I135">
-        <v>1584</v>
+        <v>1586</v>
       </c>
       <c t="s" s="3" r="J135">
-        <v>1585</v>
+        <v>1587</v>
       </c>
       <c t="s" s="3" r="K135">
-        <v>1586</v>
+        <v>1588</v>
       </c>
       <c t="s" s="3" r="L135">
-        <v>1587</v>
+        <v>1589</v>
       </c>
       <c t="s" s="3" r="M135">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c t="s" s="3" r="N135">
-        <v>1589</v>
+        <v>1591</v>
       </c>
       <c t="s" s="3" r="O135">
-        <v>1590</v>
+        <v>1592</v>
       </c>
       <c s="8" r="P135">
         <v>0.0</v>
@@ -25088,10 +25100,10 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="R135">
-        <v>1591</v>
+        <v>1593</v>
       </c>
       <c t="s" s="3" r="S135">
-        <v>1592</v>
+        <v>1594</v>
       </c>
       <c s="8" r="T135">
         <v>100.0</v>
@@ -25155,45 +25167,45 @@
     </row>
     <row r="136">
       <c t="s" s="3" r="A136">
-        <v>1593</v>
+        <v>1595</v>
       </c>
       <c s="2" r="B136"/>
       <c t="s" s="3" r="C136">
-        <v>1594</v>
+        <v>1596</v>
       </c>
       <c s="2" r="D136"/>
       <c t="s" s="31" r="E136">
-        <v>1595</v>
+        <v>1597</v>
       </c>
       <c t="s" s="32" r="F136">
-        <v>1596</v>
+        <v>1598</v>
       </c>
       <c t="s" s="3" r="G136">
-        <v>1597</v>
+        <v>1599</v>
       </c>
       <c t="s" s="3" r="H136">
-        <v>1598</v>
+        <v>1600</v>
       </c>
       <c t="s" s="3" r="I136">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c t="s" s="3" r="J136">
-        <v>1600</v>
+        <v>1602</v>
       </c>
       <c t="s" s="3" r="K136">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c t="s" s="3" r="L136">
-        <v>1602</v>
+        <v>1604</v>
       </c>
       <c t="s" s="3" r="M136">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c t="s" s="3" r="N136">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c t="s" s="3" r="O136">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c s="8" r="P136">
         <v>0.0</v>
@@ -25202,10 +25214,10 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="R136">
-        <v>1606</v>
+        <v>1608</v>
       </c>
       <c t="s" s="3" r="S136">
-        <v>1607</v>
+        <v>1609</v>
       </c>
       <c s="8" r="T136">
         <v>100.0</v>
@@ -25277,45 +25289,45 @@
     </row>
     <row r="137">
       <c t="s" s="3" r="A137">
-        <v>1608</v>
+        <v>1610</v>
       </c>
       <c s="2" r="B137"/>
       <c t="s" s="3" r="C137">
-        <v>1609</v>
+        <v>1611</v>
       </c>
       <c s="2" r="D137"/>
       <c t="s" s="31" r="E137">
-        <v>1610</v>
+        <v>1612</v>
       </c>
       <c t="s" s="32" r="F137">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c t="s" s="3" r="G137">
-        <v>1612</v>
+        <v>1614</v>
       </c>
       <c t="s" s="3" r="H137">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c t="s" s="3" r="I137">
-        <v>1614</v>
+        <v>1616</v>
       </c>
       <c t="s" s="3" r="J137">
-        <v>1615</v>
+        <v>1617</v>
       </c>
       <c t="s" s="3" r="K137">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c t="s" s="3" r="L137">
-        <v>1617</v>
+        <v>1619</v>
       </c>
       <c t="s" s="3" r="M137">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c t="s" s="3" r="N137">
-        <v>1619</v>
+        <v>1621</v>
       </c>
       <c t="s" s="3" r="O137">
-        <v>1620</v>
+        <v>1622</v>
       </c>
       <c s="8" r="P137">
         <v>0.0</v>
@@ -25324,10 +25336,10 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="R137">
-        <v>1621</v>
+        <v>1623</v>
       </c>
       <c t="s" s="3" r="S137">
-        <v>1622</v>
+        <v>1624</v>
       </c>
       <c s="8" r="T137">
         <v>100.0</v>
@@ -25399,43 +25411,43 @@
     </row>
     <row r="138">
       <c t="s" s="3" r="A138">
-        <v>1623</v>
+        <v>1625</v>
       </c>
       <c s="2" r="B138"/>
       <c t="s" s="3" r="C138">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c s="2" r="D138"/>
       <c s="2" r="E138"/>
       <c t="s" s="3" r="F138">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c t="s" s="3" r="G138">
-        <v>1626</v>
+        <v>1628</v>
       </c>
       <c t="s" s="3" r="H138">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c t="s" s="3" r="I138">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c t="s" s="3" r="J138">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c t="s" s="3" r="K138">
-        <v>1630</v>
+        <v>1632</v>
       </c>
       <c t="s" s="3" r="L138">
-        <v>1631</v>
+        <v>1633</v>
       </c>
       <c t="s" s="3" r="M138">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c t="s" s="3" r="N138">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c t="s" s="3" r="O138">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c s="8" r="P138">
         <v>240000.0</v>
@@ -25444,10 +25456,10 @@
         <v>94360.27</v>
       </c>
       <c t="s" s="3" r="R138">
-        <v>1635</v>
+        <v>1637</v>
       </c>
       <c t="s" s="3" r="S138">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c s="8" r="T138">
         <v>0.0</v>
@@ -25519,45 +25531,45 @@
     </row>
     <row r="139">
       <c t="s" s="3" r="A139">
-        <v>1637</v>
+        <v>1639</v>
       </c>
       <c s="2" r="B139"/>
       <c t="s" s="3" r="C139">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c s="2" r="D139"/>
       <c t="s" s="31" r="E139">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c t="s" s="32" r="F139">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c t="s" s="3" r="G139">
-        <v>1641</v>
+        <v>1643</v>
       </c>
       <c t="s" s="3" r="H139">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c t="s" s="3" r="I139">
-        <v>1643</v>
+        <v>1645</v>
       </c>
       <c t="s" s="3" r="J139">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c t="s" s="3" r="K139">
-        <v>1645</v>
+        <v>1647</v>
       </c>
       <c t="s" s="3" r="L139">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c t="s" s="3" r="M139">
-        <v>1647</v>
+        <v>1649</v>
       </c>
       <c t="s" s="3" r="N139">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c t="s" s="3" r="O139">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c s="8" r="P139">
         <v>240000.0</v>
@@ -25566,10 +25578,10 @@
         <v>94360.27</v>
       </c>
       <c t="s" s="3" r="R139">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c t="s" s="3" r="S139">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c s="8" r="T139">
         <v>100.0</v>
@@ -25641,45 +25653,45 @@
     </row>
     <row r="140">
       <c t="s" s="3" r="A140">
-        <v>1652</v>
+        <v>1654</v>
       </c>
       <c s="2" r="B140"/>
       <c t="s" s="3" r="C140">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c s="2" r="D140"/>
       <c t="s" s="31" r="E140">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c t="s" s="32" r="F140">
-        <v>1655</v>
+        <v>1657</v>
       </c>
       <c t="s" s="3" r="G140">
-        <v>1656</v>
+        <v>1658</v>
       </c>
       <c t="s" s="3" r="H140">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c t="s" s="3" r="I140">
-        <v>1658</v>
+        <v>1660</v>
       </c>
       <c t="s" s="3" r="J140">
-        <v>1659</v>
+        <v>1661</v>
       </c>
       <c t="s" s="3" r="K140">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c t="s" s="3" r="L140">
-        <v>1661</v>
+        <v>1663</v>
       </c>
       <c t="s" s="3" r="M140">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c t="s" s="3" r="N140">
-        <v>1663</v>
+        <v>1665</v>
       </c>
       <c t="s" s="3" r="O140">
-        <v>1664</v>
+        <v>1666</v>
       </c>
       <c s="8" r="P140">
         <v>120000.0</v>
@@ -25688,10 +25700,10 @@
         <v>115000.0</v>
       </c>
       <c t="s" s="3" r="R140">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c t="s" s="3" r="S140">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c s="8" r="T140">
         <v>100.0</v>
@@ -25703,10 +25715,10 @@
         <v>95000.0</v>
       </c>
       <c t="s" s="3" r="W140">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c t="s" s="3" r="X140">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c s="8" r="Y140">
         <v>100.0</v>
@@ -25718,10 +25730,10 @@
         <v>80000.0</v>
       </c>
       <c t="s" s="3" r="AB140">
-        <v>1669</v>
+        <v>1671</v>
       </c>
       <c t="s" s="3" r="AC140">
-        <v>1670</v>
+        <v>1672</v>
       </c>
       <c s="8" r="AD140">
         <v>100.0</v>
@@ -25783,45 +25795,45 @@
     </row>
     <row r="141">
       <c t="s" s="3" r="A141">
-        <v>1671</v>
+        <v>1673</v>
       </c>
       <c s="2" r="B141"/>
       <c t="s" s="3" r="C141">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c s="2" r="D141"/>
       <c t="s" s="31" r="E141">
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c t="s" s="32" r="F141">
-        <v>1674</v>
+        <v>1676</v>
       </c>
       <c t="s" s="3" r="G141">
-        <v>1675</v>
+        <v>1677</v>
       </c>
       <c t="s" s="3" r="H141">
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c t="s" s="3" r="I141">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c t="s" s="3" r="J141">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c t="s" s="3" r="K141">
-        <v>1679</v>
+        <v>1681</v>
       </c>
       <c t="s" s="3" r="L141">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c t="s" s="3" r="M141">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c t="s" s="3" r="N141">
-        <v>1682</v>
+        <v>1684</v>
       </c>
       <c t="s" s="3" r="O141">
-        <v>1683</v>
+        <v>1685</v>
       </c>
       <c s="8" r="P141">
         <v>0.0</v>
@@ -25830,10 +25842,10 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="R141">
-        <v>1684</v>
+        <v>1686</v>
       </c>
       <c t="s" s="3" r="S141">
-        <v>1685</v>
+        <v>1687</v>
       </c>
       <c s="8" r="T141">
         <v>100.0</v>
@@ -25872,13 +25884,13 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="AR141">
-        <v>1686</v>
+        <v>1688</v>
       </c>
       <c s="8" r="AS141">
         <v>1317.09</v>
       </c>
       <c t="s" s="3" r="AT141">
-        <v>1687</v>
+        <v>1689</v>
       </c>
       <c s="7" r="AU141"/>
       <c s="7" r="AV141"/>
@@ -25919,45 +25931,45 @@
     </row>
     <row r="142">
       <c t="s" s="3" r="A142">
-        <v>1688</v>
+        <v>1690</v>
       </c>
       <c s="2" r="B142"/>
       <c t="s" s="3" r="C142">
-        <v>1689</v>
+        <v>1691</v>
       </c>
       <c s="2" r="D142"/>
       <c t="s" s="31" r="E142">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c t="s" s="32" r="F142">
-        <v>1691</v>
+        <v>1693</v>
       </c>
       <c t="s" s="3" r="G142">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c t="s" s="3" r="H142">
-        <v>1693</v>
+        <v>1695</v>
       </c>
       <c t="s" s="3" r="I142">
-        <v>1694</v>
+        <v>1696</v>
       </c>
       <c t="s" s="3" r="J142">
-        <v>1695</v>
+        <v>1697</v>
       </c>
       <c t="s" s="3" r="K142">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c t="s" s="3" r="L142">
-        <v>1697</v>
+        <v>1699</v>
       </c>
       <c t="s" s="3" r="M142">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c t="s" s="3" r="N142">
-        <v>1699</v>
+        <v>1701</v>
       </c>
       <c t="s" s="3" r="O142">
-        <v>1700</v>
+        <v>1702</v>
       </c>
       <c s="8" r="P142">
         <v>0.0</v>
@@ -25966,10 +25978,10 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="R142">
-        <v>1701</v>
+        <v>1703</v>
       </c>
       <c t="s" s="3" r="S142">
-        <v>1702</v>
+        <v>1704</v>
       </c>
       <c s="8" r="T142">
         <v>100.0</v>
@@ -26016,13 +26028,13 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="AR142">
-        <v>1703</v>
+        <v>1705</v>
       </c>
       <c s="8" r="AS142">
         <v>477.32</v>
       </c>
       <c t="s" s="3" r="AT142">
-        <v>1704</v>
+        <v>1706</v>
       </c>
       <c s="8" r="AU142">
         <v>0.0</v>
@@ -26031,7 +26043,7 @@
         <v>313.73</v>
       </c>
       <c t="s" s="3" r="AW142">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c s="8" r="AX142">
         <v>1.0</v>
@@ -26083,45 +26095,45 @@
     </row>
     <row r="143">
       <c t="s" s="3" r="A143">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c s="2" r="B143"/>
       <c t="s" s="3" r="C143">
-        <v>1707</v>
+        <v>1709</v>
       </c>
       <c s="2" r="D143"/>
       <c t="s" s="31" r="E143">
-        <v>1708</v>
+        <v>1710</v>
       </c>
       <c t="s" s="32" r="F143">
-        <v>1709</v>
+        <v>1711</v>
       </c>
       <c t="s" s="3" r="G143">
-        <v>1710</v>
+        <v>1712</v>
       </c>
       <c t="s" s="3" r="H143">
-        <v>1711</v>
+        <v>1713</v>
       </c>
       <c t="s" s="3" r="I143">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c t="s" s="3" r="J143">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c t="s" s="3" r="K143">
-        <v>1714</v>
+        <v>1716</v>
       </c>
       <c t="s" s="3" r="L143">
-        <v>1715</v>
+        <v>1717</v>
       </c>
       <c t="s" s="3" r="M143">
-        <v>1716</v>
+        <v>1718</v>
       </c>
       <c t="s" s="3" r="N143">
-        <v>1717</v>
+        <v>1719</v>
       </c>
       <c t="s" s="3" r="O143">
-        <v>1718</v>
+        <v>1720</v>
       </c>
       <c s="8" r="P143">
         <v>0.0</v>
@@ -26130,10 +26142,10 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="R143">
-        <v>1719</v>
+        <v>1721</v>
       </c>
       <c t="s" s="3" r="S143">
-        <v>1720</v>
+        <v>1722</v>
       </c>
       <c s="8" r="T143">
         <v>100.0</v>
@@ -26180,13 +26192,13 @@
         <v>612.0</v>
       </c>
       <c t="s" s="3" r="AR143">
-        <v>1721</v>
+        <v>1723</v>
       </c>
       <c s="8" r="AS143">
         <v>694.64</v>
       </c>
       <c t="s" s="3" r="AT143">
-        <v>1722</v>
+        <v>1724</v>
       </c>
       <c s="8" r="AU143">
         <v>0.0</v>
@@ -26195,7 +26207,7 @@
         <v>313.73</v>
       </c>
       <c t="s" s="3" r="AW143">
-        <v>1723</v>
+        <v>1725</v>
       </c>
       <c s="8" r="AX143">
         <v>2.0</v>
@@ -26247,45 +26259,45 @@
     </row>
     <row r="144">
       <c t="s" s="3" r="A144">
-        <v>1724</v>
+        <v>1726</v>
       </c>
       <c s="2" r="B144"/>
       <c t="s" s="3" r="C144">
-        <v>1725</v>
+        <v>1727</v>
       </c>
       <c s="2" r="D144"/>
       <c t="s" s="31" r="E144">
-        <v>1726</v>
+        <v>1728</v>
       </c>
       <c t="s" s="32" r="F144">
-        <v>1727</v>
+        <v>1729</v>
       </c>
       <c t="s" s="3" r="G144">
-        <v>1728</v>
+        <v>1730</v>
       </c>
       <c t="s" s="3" r="H144">
-        <v>1729</v>
+        <v>1731</v>
       </c>
       <c t="s" s="3" r="I144">
-        <v>1730</v>
+        <v>1732</v>
       </c>
       <c t="s" s="3" r="J144">
-        <v>1731</v>
+        <v>1733</v>
       </c>
       <c t="s" s="3" r="K144">
-        <v>1732</v>
+        <v>1734</v>
       </c>
       <c t="s" s="3" r="L144">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c t="s" s="3" r="M144">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c t="s" s="3" r="N144">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c t="s" s="3" r="O144">
-        <v>1736</v>
+        <v>1738</v>
       </c>
       <c s="8" r="P144">
         <v>0.0</v>
@@ -26294,10 +26306,10 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="R144">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c t="s" s="3" r="S144">
-        <v>1738</v>
+        <v>1740</v>
       </c>
       <c s="8" r="T144">
         <v>100.0</v>
@@ -26344,13 +26356,13 @@
         <v>612.0</v>
       </c>
       <c t="s" s="3" r="AR144">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c s="8" r="AS144">
         <v>694.64</v>
       </c>
       <c t="s" s="3" r="AT144">
-        <v>1740</v>
+        <v>1742</v>
       </c>
       <c s="8" r="AU144">
         <v>0.0</v>
@@ -26359,7 +26371,7 @@
         <v>313.73</v>
       </c>
       <c t="s" s="3" r="AW144">
-        <v>1741</v>
+        <v>1743</v>
       </c>
       <c s="8" r="AX144">
         <v>2.0</v>
@@ -26411,42 +26423,42 @@
     </row>
     <row r="145">
       <c t="s" s="20" r="A145">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c s="21" r="B145"/>
       <c t="s" s="20" r="C145">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c s="21" r="D145"/>
       <c t="s" s="31" r="E145">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c t="s" s="33" r="F145">
-        <v>1745</v>
+        <v>1747</v>
       </c>
       <c t="s" s="20" r="G145">
-        <v>1746</v>
+        <v>1748</v>
       </c>
       <c t="s" s="20" r="H145">
-        <v>1747</v>
+        <v>1749</v>
       </c>
       <c t="s" s="20" r="I145">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c t="s" s="20" r="J145">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c t="s" s="20" r="K145">
-        <v>1750</v>
+        <v>1752</v>
       </c>
       <c t="s" s="20" r="L145">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c t="s" s="20" r="M145">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c t="s" s="20" r="N145">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c s="23" r="O145"/>
       <c s="18" r="P145">
@@ -26456,10 +26468,10 @@
         <v>0.0</v>
       </c>
       <c t="s" s="20" r="R145">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c t="s" s="20" r="S145">
-        <v>1755</v>
+        <v>1757</v>
       </c>
       <c s="18" r="T145">
         <v>100.0</v>
@@ -26498,13 +26510,13 @@
         <v>675.0</v>
       </c>
       <c t="s" s="20" r="AR145">
-        <v>1756</v>
+        <v>1758</v>
       </c>
       <c s="18" r="AS145">
         <v>100.0</v>
       </c>
       <c t="s" s="20" r="AT145">
-        <v>1757</v>
+        <v>1759</v>
       </c>
       <c s="23" r="AU145"/>
       <c s="23" r="AV145"/>
@@ -26543,42 +26555,42 @@
     </row>
     <row r="146">
       <c t="s" s="20" r="A146">
-        <v>1758</v>
+        <v>1760</v>
       </c>
       <c s="21" r="B146"/>
       <c t="s" s="20" r="C146">
-        <v>1759</v>
+        <v>1761</v>
       </c>
       <c s="21" r="D146"/>
       <c t="s" s="31" r="E146">
-        <v>1760</v>
+        <v>1762</v>
       </c>
       <c t="s" s="32" r="F146">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c t="s" s="20" r="G146">
-        <v>1762</v>
+        <v>1764</v>
       </c>
       <c t="s" s="20" r="H146">
-        <v>1763</v>
+        <v>1765</v>
       </c>
       <c t="s" s="20" r="I146">
-        <v>1764</v>
+        <v>1766</v>
       </c>
       <c t="s" s="20" r="J146">
-        <v>1765</v>
+        <v>1767</v>
       </c>
       <c t="s" s="20" r="K146">
-        <v>1766</v>
+        <v>1768</v>
       </c>
       <c t="s" s="20" r="L146">
-        <v>1767</v>
+        <v>1769</v>
       </c>
       <c t="s" s="20" r="M146">
-        <v>1768</v>
+        <v>1770</v>
       </c>
       <c t="s" s="20" r="N146">
-        <v>1769</v>
+        <v>1771</v>
       </c>
       <c s="23" r="O146"/>
       <c s="18" r="P146">
@@ -26588,10 +26600,10 @@
         <v>0.0</v>
       </c>
       <c t="s" s="20" r="R146">
-        <v>1770</v>
+        <v>1772</v>
       </c>
       <c t="s" s="20" r="S146">
-        <v>1771</v>
+        <v>1773</v>
       </c>
       <c s="18" r="T146">
         <v>100.0</v>
@@ -26630,13 +26642,13 @@
         <v>675.0</v>
       </c>
       <c t="s" s="20" r="AR146">
-        <v>1772</v>
+        <v>1774</v>
       </c>
       <c s="18" r="AS146">
         <v>100.0</v>
       </c>
       <c t="s" s="20" r="AT146">
-        <v>1773</v>
+        <v>1775</v>
       </c>
       <c s="23" r="AU146"/>
       <c s="23" r="AV146"/>
@@ -26675,45 +26687,45 @@
     </row>
     <row r="147">
       <c t="s" s="3" r="A147">
-        <v>1774</v>
+        <v>1776</v>
       </c>
       <c s="2" r="B147"/>
       <c t="s" s="3" r="C147">
-        <v>1775</v>
+        <v>1777</v>
       </c>
       <c s="2" r="D147"/>
       <c t="s" s="31" r="E147">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c t="s" s="32" r="F147">
-        <v>1777</v>
+        <v>1779</v>
       </c>
       <c t="s" s="3" r="G147">
-        <v>1778</v>
+        <v>1780</v>
       </c>
       <c t="s" s="3" r="H147">
-        <v>1779</v>
+        <v>1781</v>
       </c>
       <c t="s" s="3" r="I147">
-        <v>1780</v>
+        <v>1782</v>
       </c>
       <c t="s" s="3" r="J147">
-        <v>1781</v>
+        <v>1783</v>
       </c>
       <c t="s" s="3" r="K147">
-        <v>1782</v>
+        <v>1784</v>
       </c>
       <c t="s" s="3" r="L147">
-        <v>1783</v>
+        <v>1785</v>
       </c>
       <c t="s" s="3" r="M147">
-        <v>1784</v>
+        <v>1786</v>
       </c>
       <c t="s" s="3" r="N147">
-        <v>1785</v>
+        <v>1787</v>
       </c>
       <c t="s" s="3" r="O147">
-        <v>1786</v>
+        <v>1788</v>
       </c>
       <c s="8" r="P147">
         <v>0.0</v>
@@ -26722,10 +26734,10 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="R147">
-        <v>1787</v>
+        <v>1789</v>
       </c>
       <c t="s" s="3" r="S147">
-        <v>1788</v>
+        <v>1790</v>
       </c>
       <c s="8" r="T147">
         <v>100.0</v>
@@ -26737,10 +26749,10 @@
         <v>74596.85</v>
       </c>
       <c t="s" s="3" r="W147">
-        <v>1789</v>
+        <v>1791</v>
       </c>
       <c t="s" s="3" r="X147">
-        <v>1790</v>
+        <v>1792</v>
       </c>
       <c s="8" r="Y147">
         <v>100.0</v>
@@ -26782,13 +26794,13 @@
         <v>870.45</v>
       </c>
       <c t="s" s="3" r="AR147">
-        <v>1791</v>
+        <v>1793</v>
       </c>
       <c s="8" r="AS147">
         <v>523.47</v>
       </c>
       <c t="s" s="3" r="AT147">
-        <v>1792</v>
+        <v>1794</v>
       </c>
       <c s="8" r="AU147">
         <v>0.0</v>
@@ -26797,7 +26809,7 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="AW147">
-        <v>1793</v>
+        <v>1795</v>
       </c>
       <c s="8" r="AX147">
         <v>2.0</v>
@@ -26849,45 +26861,45 @@
     </row>
     <row r="148">
       <c t="s" s="3" r="A148">
-        <v>1794</v>
+        <v>1796</v>
       </c>
       <c s="2" r="B148"/>
       <c t="s" s="3" r="C148">
-        <v>1795</v>
+        <v>1797</v>
       </c>
       <c s="2" r="D148"/>
       <c t="s" s="11" r="E148">
-        <v>1796</v>
+        <v>1798</v>
       </c>
       <c t="s" s="3" r="F148">
-        <v>1797</v>
+        <v>1799</v>
       </c>
       <c t="s" s="3" r="G148">
-        <v>1798</v>
+        <v>1800</v>
       </c>
       <c t="s" s="3" r="H148">
-        <v>1799</v>
+        <v>1801</v>
       </c>
       <c t="s" s="3" r="I148">
-        <v>1800</v>
+        <v>1802</v>
       </c>
       <c t="s" s="3" r="J148">
-        <v>1801</v>
+        <v>1803</v>
       </c>
       <c t="s" s="3" r="K148">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c t="s" s="3" r="L148">
-        <v>1803</v>
+        <v>1805</v>
       </c>
       <c t="s" s="3" r="M148">
-        <v>1804</v>
+        <v>1806</v>
       </c>
       <c t="s" s="3" r="N148">
-        <v>1805</v>
+        <v>1807</v>
       </c>
       <c t="s" s="3" r="O148">
-        <v>1806</v>
+        <v>1808</v>
       </c>
       <c s="8" r="P148">
         <v>85000.0</v>
@@ -26896,10 +26908,10 @@
         <v>74596.85</v>
       </c>
       <c t="s" s="3" r="R148">
-        <v>1807</v>
+        <v>1809</v>
       </c>
       <c t="s" s="3" r="S148">
-        <v>1808</v>
+        <v>1810</v>
       </c>
       <c s="8" r="T148">
         <v>100.0</v>
@@ -26946,13 +26958,13 @@
         <v>870.45</v>
       </c>
       <c t="s" s="3" r="AR148">
-        <v>1809</v>
+        <v>1811</v>
       </c>
       <c s="8" r="AS148">
         <v>523.47</v>
       </c>
       <c t="s" s="3" r="AT148">
-        <v>1810</v>
+        <v>1812</v>
       </c>
       <c s="8" r="AU148">
         <v>0.0</v>
@@ -26961,7 +26973,7 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="AW148">
-        <v>1811</v>
+        <v>1813</v>
       </c>
       <c s="8" r="AX148">
         <v>2.0</v>
@@ -27013,42 +27025,42 @@
     </row>
     <row r="149">
       <c t="s" s="20" r="A149">
-        <v>1812</v>
+        <v>1814</v>
       </c>
       <c s="21" r="B149"/>
       <c t="s" s="20" r="C149">
-        <v>1813</v>
+        <v>1815</v>
       </c>
       <c s="21" r="D149"/>
       <c t="s" s="31" r="E149">
-        <v>1814</v>
+        <v>1816</v>
       </c>
       <c t="s" s="32" r="F149">
-        <v>1815</v>
+        <v>1817</v>
       </c>
       <c t="s" s="20" r="G149">
-        <v>1816</v>
+        <v>1818</v>
       </c>
       <c t="s" s="20" r="H149">
-        <v>1817</v>
+        <v>1819</v>
       </c>
       <c t="s" s="20" r="I149">
-        <v>1818</v>
+        <v>1820</v>
       </c>
       <c t="s" s="20" r="J149">
-        <v>1819</v>
+        <v>1821</v>
       </c>
       <c t="s" s="20" r="K149">
-        <v>1820</v>
+        <v>1822</v>
       </c>
       <c t="s" s="20" r="L149">
-        <v>1821</v>
+        <v>1823</v>
       </c>
       <c t="s" s="20" r="M149">
-        <v>1822</v>
+        <v>1824</v>
       </c>
       <c t="s" s="20" r="N149">
-        <v>1823</v>
+        <v>1825</v>
       </c>
       <c s="23" r="O149"/>
       <c s="18" r="P149">
@@ -27058,10 +27070,10 @@
         <v>0.0</v>
       </c>
       <c t="s" s="20" r="R149">
-        <v>1824</v>
+        <v>1826</v>
       </c>
       <c t="s" s="20" r="S149">
-        <v>1825</v>
+        <v>1827</v>
       </c>
       <c s="18" r="T149">
         <v>100.0</v>
@@ -27100,13 +27112,13 @@
         <v>6700.0</v>
       </c>
       <c t="s" s="20" r="AR149">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c s="18" r="AS149">
         <v>0.0</v>
       </c>
       <c t="s" s="20" r="AT149">
-        <v>1827</v>
+        <v>1829</v>
       </c>
       <c s="23" r="AU149"/>
       <c s="23" r="AV149"/>
@@ -27145,45 +27157,45 @@
     </row>
     <row r="150">
       <c t="s" s="3" r="A150">
-        <v>1828</v>
+        <v>1830</v>
       </c>
       <c s="2" r="B150"/>
       <c t="s" s="3" r="C150">
-        <v>1829</v>
+        <v>1831</v>
       </c>
       <c s="2" r="D150"/>
       <c t="s" s="31" r="E150">
-        <v>1830</v>
+        <v>1832</v>
       </c>
       <c t="s" s="32" r="F150">
-        <v>1831</v>
+        <v>1833</v>
       </c>
       <c t="s" s="3" r="G150">
-        <v>1832</v>
+        <v>1834</v>
       </c>
       <c t="s" s="3" r="H150">
-        <v>1833</v>
+        <v>1835</v>
       </c>
       <c t="s" s="3" r="I150">
-        <v>1834</v>
+        <v>1836</v>
       </c>
       <c t="s" s="3" r="J150">
-        <v>1835</v>
+        <v>1837</v>
       </c>
       <c t="s" s="3" r="K150">
-        <v>1836</v>
+        <v>1838</v>
       </c>
       <c t="s" s="3" r="L150">
-        <v>1837</v>
+        <v>1839</v>
       </c>
       <c t="s" s="3" r="M150">
-        <v>1838</v>
+        <v>1840</v>
       </c>
       <c t="s" s="3" r="N150">
-        <v>1839</v>
+        <v>1841</v>
       </c>
       <c t="s" s="3" r="O150">
-        <v>1840</v>
+        <v>1842</v>
       </c>
       <c s="8" r="P150">
         <v>50000.0</v>
@@ -27192,10 +27204,10 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="R150">
-        <v>1841</v>
+        <v>1843</v>
       </c>
       <c t="s" s="3" r="S150">
-        <v>1842</v>
+        <v>1844</v>
       </c>
       <c s="8" r="T150">
         <v>100.0</v>
@@ -27207,10 +27219,10 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="W150">
-        <v>1843</v>
+        <v>1845</v>
       </c>
       <c t="s" s="3" r="X150">
-        <v>1844</v>
+        <v>1846</v>
       </c>
       <c s="8" r="Y150">
         <v>100.0</v>
@@ -27267,45 +27279,45 @@
     </row>
     <row r="151">
       <c t="s" s="3" r="A151">
-        <v>1845</v>
+        <v>1847</v>
       </c>
       <c s="2" r="B151"/>
       <c t="s" s="3" r="C151">
-        <v>1846</v>
+        <v>1848</v>
       </c>
       <c s="2" r="D151"/>
       <c t="s" s="31" r="E151">
-        <v>1847</v>
+        <v>1849</v>
       </c>
       <c t="s" s="32" r="F151">
-        <v>1848</v>
+        <v>1850</v>
       </c>
       <c t="s" s="3" r="G151">
-        <v>1849</v>
+        <v>1851</v>
       </c>
       <c t="s" s="3" r="H151">
-        <v>1850</v>
+        <v>1852</v>
       </c>
       <c t="s" s="3" r="I151">
-        <v>1851</v>
+        <v>1853</v>
       </c>
       <c t="s" s="3" r="J151">
-        <v>1852</v>
+        <v>1854</v>
       </c>
       <c t="s" s="3" r="K151">
-        <v>1853</v>
+        <v>1855</v>
       </c>
       <c t="s" s="3" r="L151">
-        <v>1854</v>
+        <v>1856</v>
       </c>
       <c t="s" s="3" r="M151">
-        <v>1855</v>
+        <v>1857</v>
       </c>
       <c t="s" s="3" r="N151">
-        <v>1856</v>
+        <v>1858</v>
       </c>
       <c t="s" s="3" r="O151">
-        <v>1857</v>
+        <v>1859</v>
       </c>
       <c s="8" r="P151">
         <v>108001.0</v>
@@ -27314,10 +27326,10 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="R151">
-        <v>1858</v>
+        <v>1860</v>
       </c>
       <c t="s" s="3" r="S151">
-        <v>1859</v>
+        <v>1861</v>
       </c>
       <c s="8" r="T151">
         <v>100.0</v>
@@ -27379,45 +27391,45 @@
     </row>
     <row r="152">
       <c t="s" s="3" r="A152">
-        <v>1860</v>
+        <v>1862</v>
       </c>
       <c s="2" r="B152"/>
       <c t="s" s="3" r="C152">
-        <v>1861</v>
+        <v>1863</v>
       </c>
       <c s="2" r="D152"/>
       <c t="s" s="31" r="E152">
-        <v>1862</v>
+        <v>1864</v>
       </c>
       <c t="s" s="32" r="F152">
-        <v>1863</v>
+        <v>1865</v>
       </c>
       <c t="s" s="3" r="G152">
-        <v>1864</v>
+        <v>1866</v>
       </c>
       <c t="s" s="3" r="H152">
-        <v>1865</v>
+        <v>1867</v>
       </c>
       <c t="s" s="3" r="I152">
-        <v>1866</v>
+        <v>1868</v>
       </c>
       <c t="s" s="3" r="J152">
-        <v>1867</v>
+        <v>1869</v>
       </c>
       <c t="s" s="3" r="K152">
-        <v>1868</v>
+        <v>1870</v>
       </c>
       <c t="s" s="3" r="L152">
-        <v>1869</v>
+        <v>1871</v>
       </c>
       <c t="s" s="3" r="M152">
-        <v>1870</v>
+        <v>1872</v>
       </c>
       <c t="s" s="3" r="N152">
-        <v>1871</v>
+        <v>1873</v>
       </c>
       <c t="s" s="3" r="O152">
-        <v>1872</v>
+        <v>1874</v>
       </c>
       <c s="8" r="P152">
         <v>58001.0</v>
@@ -27426,10 +27438,10 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="R152">
-        <v>1873</v>
+        <v>1875</v>
       </c>
       <c t="s" s="3" r="S152">
-        <v>1874</v>
+        <v>1876</v>
       </c>
       <c s="8" r="T152">
         <v>100.0</v>
@@ -27441,10 +27453,10 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="W152">
-        <v>1875</v>
+        <v>1877</v>
       </c>
       <c t="s" s="3" r="X152">
-        <v>1876</v>
+        <v>1878</v>
       </c>
       <c s="8" r="Y152">
         <v>100.0</v>
@@ -27501,45 +27513,45 @@
     </row>
     <row r="153">
       <c t="s" s="3" r="A153">
-        <v>1877</v>
+        <v>1879</v>
       </c>
       <c s="2" r="B153"/>
       <c t="s" s="3" r="C153">
-        <v>1878</v>
+        <v>1880</v>
       </c>
       <c s="2" r="D153"/>
       <c t="s" s="31" r="E153">
-        <v>1879</v>
+        <v>1881</v>
       </c>
       <c t="s" s="32" r="F153">
-        <v>1880</v>
+        <v>1882</v>
       </c>
       <c t="s" s="3" r="G153">
-        <v>1881</v>
+        <v>1883</v>
       </c>
       <c t="s" s="3" r="H153">
-        <v>1882</v>
+        <v>1884</v>
       </c>
       <c t="s" s="3" r="I153">
-        <v>1883</v>
+        <v>1885</v>
       </c>
       <c t="s" s="3" r="J153">
-        <v>1884</v>
+        <v>1886</v>
       </c>
       <c t="s" s="3" r="K153">
-        <v>1885</v>
+        <v>1887</v>
       </c>
       <c t="s" s="3" r="L153">
-        <v>1886</v>
+        <v>1888</v>
       </c>
       <c t="s" s="3" r="M153">
-        <v>1887</v>
+        <v>1889</v>
       </c>
       <c t="s" s="3" r="N153">
-        <v>1888</v>
+        <v>1890</v>
       </c>
       <c t="s" s="3" r="O153">
-        <v>1889</v>
+        <v>1891</v>
       </c>
       <c s="8" r="P153">
         <v>100000.0</v>
@@ -27548,10 +27560,10 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="R153">
-        <v>1890</v>
+        <v>1892</v>
       </c>
       <c t="s" s="3" r="S153">
-        <v>1891</v>
+        <v>1893</v>
       </c>
       <c s="8" r="T153">
         <v>100.0</v>
@@ -27563,10 +27575,10 @@
         <v>100001.0</v>
       </c>
       <c t="s" s="3" r="W153">
-        <v>1892</v>
+        <v>1894</v>
       </c>
       <c t="s" s="3" r="X153">
-        <v>1893</v>
+        <v>1895</v>
       </c>
       <c s="8" r="Y153">
         <v>100.0</v>
@@ -27623,45 +27635,45 @@
     </row>
     <row r="154">
       <c t="s" s="3" r="A154">
-        <v>1894</v>
+        <v>1896</v>
       </c>
       <c s="2" r="B154"/>
       <c t="s" s="3" r="C154">
-        <v>1895</v>
+        <v>1897</v>
       </c>
       <c s="2" r="D154"/>
       <c t="s" s="31" r="E154">
-        <v>1896</v>
+        <v>1898</v>
       </c>
       <c t="s" s="32" r="F154">
-        <v>1897</v>
+        <v>1899</v>
       </c>
       <c t="s" s="3" r="G154">
-        <v>1898</v>
+        <v>1900</v>
       </c>
       <c t="s" s="3" r="H154">
-        <v>1899</v>
+        <v>1901</v>
       </c>
       <c t="s" s="3" r="I154">
-        <v>1900</v>
+        <v>1902</v>
       </c>
       <c t="s" s="3" r="J154">
-        <v>1901</v>
+        <v>1903</v>
       </c>
       <c t="s" s="3" r="K154">
-        <v>1902</v>
+        <v>1904</v>
       </c>
       <c t="s" s="3" r="L154">
-        <v>1903</v>
+        <v>1905</v>
       </c>
       <c t="s" s="3" r="M154">
-        <v>1904</v>
+        <v>1906</v>
       </c>
       <c t="s" s="3" r="N154">
-        <v>1905</v>
+        <v>1907</v>
       </c>
       <c t="s" s="3" r="O154">
-        <v>1906</v>
+        <v>1908</v>
       </c>
       <c s="8" r="P154">
         <v>208001.0</v>
@@ -27670,10 +27682,10 @@
         <v>100001.0</v>
       </c>
       <c t="s" s="3" r="R154">
-        <v>1907</v>
+        <v>1909</v>
       </c>
       <c t="s" s="3" r="S154">
-        <v>1908</v>
+        <v>1910</v>
       </c>
       <c s="8" r="T154">
         <v>100.0</v>
@@ -27735,45 +27747,45 @@
     </row>
     <row r="155">
       <c t="s" s="3" r="A155">
-        <v>1909</v>
+        <v>1911</v>
       </c>
       <c s="2" r="B155"/>
       <c t="s" s="3" r="C155">
-        <v>1910</v>
+        <v>1912</v>
       </c>
       <c s="2" r="D155"/>
       <c t="s" s="31" r="E155">
-        <v>1911</v>
+        <v>1913</v>
       </c>
       <c t="s" s="32" r="F155">
-        <v>1912</v>
+        <v>1914</v>
       </c>
       <c t="s" s="3" r="G155">
-        <v>1913</v>
+        <v>1915</v>
       </c>
       <c t="s" s="3" r="H155">
-        <v>1914</v>
+        <v>1916</v>
       </c>
       <c t="s" s="3" r="I155">
-        <v>1915</v>
+        <v>1917</v>
       </c>
       <c t="s" s="3" r="J155">
-        <v>1916</v>
+        <v>1918</v>
       </c>
       <c t="s" s="3" r="K155">
-        <v>1917</v>
+        <v>1919</v>
       </c>
       <c t="s" s="3" r="L155">
-        <v>1918</v>
+        <v>1920</v>
       </c>
       <c t="s" s="3" r="M155">
-        <v>1919</v>
+        <v>1921</v>
       </c>
       <c t="s" s="3" r="N155">
-        <v>1920</v>
+        <v>1922</v>
       </c>
       <c t="s" s="3" r="O155">
-        <v>1921</v>
+        <v>1923</v>
       </c>
       <c s="8" r="P155">
         <v>150000.0</v>
@@ -27782,10 +27794,10 @@
         <v>50000.0</v>
       </c>
       <c t="s" s="3" r="R155">
-        <v>1922</v>
+        <v>1924</v>
       </c>
       <c t="s" s="3" r="S155">
-        <v>1923</v>
+        <v>1925</v>
       </c>
       <c s="8" r="T155">
         <v>100.0</v>
@@ -27797,10 +27809,10 @@
         <v>75000.0</v>
       </c>
       <c t="s" s="3" r="W155">
-        <v>1924</v>
+        <v>1926</v>
       </c>
       <c t="s" s="3" r="X155">
-        <v>1925</v>
+        <v>1927</v>
       </c>
       <c s="8" r="Y155">
         <v>100.0</v>
@@ -27857,45 +27869,45 @@
     </row>
     <row r="156">
       <c t="s" s="3" r="A156">
-        <v>1926</v>
+        <v>1928</v>
       </c>
       <c s="2" r="B156"/>
       <c t="s" s="3" r="C156">
-        <v>1927</v>
+        <v>1929</v>
       </c>
       <c s="2" r="D156"/>
       <c t="s" s="31" r="E156">
-        <v>1928</v>
+        <v>1930</v>
       </c>
       <c t="s" s="32" r="F156">
-        <v>1929</v>
+        <v>1931</v>
       </c>
       <c t="s" s="3" r="G156">
-        <v>1930</v>
+        <v>1932</v>
       </c>
       <c t="s" s="3" r="H156">
-        <v>1931</v>
+        <v>1933</v>
       </c>
       <c t="s" s="3" r="I156">
-        <v>1932</v>
+        <v>1934</v>
       </c>
       <c t="s" s="3" r="J156">
-        <v>1933</v>
+        <v>1935</v>
       </c>
       <c t="s" s="3" r="K156">
-        <v>1934</v>
+        <v>1936</v>
       </c>
       <c t="s" s="3" r="L156">
-        <v>1935</v>
+        <v>1937</v>
       </c>
       <c t="s" s="3" r="M156">
-        <v>1936</v>
+        <v>1938</v>
       </c>
       <c t="s" s="3" r="N156">
-        <v>1937</v>
+        <v>1939</v>
       </c>
       <c t="s" s="3" r="O156">
-        <v>1938</v>
+        <v>1940</v>
       </c>
       <c s="8" r="P156">
         <v>100000.0</v>
@@ -27904,10 +27916,10 @@
         <v>60000.0</v>
       </c>
       <c t="s" s="3" r="R156">
-        <v>1939</v>
+        <v>1941</v>
       </c>
       <c t="s" s="3" r="S156">
-        <v>1940</v>
+        <v>1942</v>
       </c>
       <c s="8" r="T156">
         <v>100.0</v>
@@ -27919,10 +27931,10 @@
         <v>50000.0</v>
       </c>
       <c t="s" s="3" r="W156">
-        <v>1941</v>
+        <v>1943</v>
       </c>
       <c t="s" s="3" r="X156">
-        <v>1942</v>
+        <v>1944</v>
       </c>
       <c s="8" r="Y156">
         <v>100.0</v>
@@ -27979,45 +27991,45 @@
     </row>
     <row r="157">
       <c t="s" s="3" r="A157">
-        <v>1943</v>
+        <v>1945</v>
       </c>
       <c s="2" r="B157"/>
       <c t="s" s="3" r="C157">
-        <v>1944</v>
+        <v>1946</v>
       </c>
       <c s="2" r="D157"/>
       <c t="s" s="11" r="E157">
-        <v>1945</v>
+        <v>1947</v>
       </c>
       <c t="s" s="3" r="F157">
-        <v>1946</v>
+        <v>1948</v>
       </c>
       <c t="s" s="3" r="G157">
-        <v>1947</v>
+        <v>1949</v>
       </c>
       <c t="s" s="3" r="H157">
-        <v>1948</v>
+        <v>1950</v>
       </c>
       <c t="s" s="3" r="I157">
-        <v>1949</v>
+        <v>1951</v>
       </c>
       <c t="s" s="3" r="J157">
-        <v>1950</v>
+        <v>1952</v>
       </c>
       <c t="s" s="3" r="K157">
-        <v>1951</v>
+        <v>1953</v>
       </c>
       <c t="s" s="3" r="L157">
-        <v>1952</v>
+        <v>1954</v>
       </c>
       <c t="s" s="3" r="M157">
-        <v>1953</v>
+        <v>1955</v>
       </c>
       <c t="s" s="3" r="N157">
-        <v>1954</v>
+        <v>1956</v>
       </c>
       <c t="s" s="3" r="O157">
-        <v>1955</v>
+        <v>1957</v>
       </c>
       <c s="8" r="P157">
         <v>1080010.0</v>
@@ -28026,10 +28038,10 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="R157">
-        <v>1956</v>
+        <v>1958</v>
       </c>
       <c t="s" s="3" r="S157">
-        <v>1957</v>
+        <v>1959</v>
       </c>
       <c s="8" r="T157">
         <v>10.0</v>
@@ -28088,50 +28100,50 @@
       <c s="7" r="BL157"/>
       <c s="7" r="BM157"/>
       <c t="s" s="15" r="BN157">
-        <v>1958</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="158">
       <c t="s" s="3" r="A158">
-        <v>1959</v>
+        <v>1961</v>
       </c>
       <c s="2" r="B158"/>
       <c t="s" s="3" r="C158">
-        <v>1960</v>
+        <v>1962</v>
       </c>
       <c s="2" r="D158"/>
       <c t="s" s="11" r="E158">
-        <v>1961</v>
+        <v>1963</v>
       </c>
       <c t="s" s="3" r="F158">
-        <v>1962</v>
+        <v>1964</v>
       </c>
       <c t="s" s="3" r="G158">
-        <v>1963</v>
+        <v>1965</v>
       </c>
       <c t="s" s="3" r="H158">
-        <v>1964</v>
+        <v>1966</v>
       </c>
       <c t="s" s="3" r="I158">
-        <v>1965</v>
+        <v>1967</v>
       </c>
       <c t="s" s="3" r="J158">
-        <v>1966</v>
+        <v>1968</v>
       </c>
       <c t="s" s="3" r="K158">
-        <v>1967</v>
+        <v>1969</v>
       </c>
       <c t="s" s="3" r="L158">
-        <v>1968</v>
+        <v>1970</v>
       </c>
       <c t="s" s="3" r="M158">
-        <v>1969</v>
+        <v>1971</v>
       </c>
       <c t="s" s="3" r="N158">
-        <v>1970</v>
+        <v>1972</v>
       </c>
       <c t="s" s="3" r="O158">
-        <v>1971</v>
+        <v>1973</v>
       </c>
       <c s="8" r="P158">
         <v>1070000.0</v>
@@ -28140,10 +28152,10 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="R158">
-        <v>1972</v>
+        <v>1974</v>
       </c>
       <c t="s" s="3" r="S158">
-        <v>1973</v>
+        <v>1975</v>
       </c>
       <c s="8" r="T158">
         <v>10.0</v>
@@ -28202,50 +28214,50 @@
       <c s="7" r="BL158"/>
       <c s="7" r="BM158"/>
       <c t="s" s="15" r="BN158">
-        <v>1974</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="159">
       <c t="s" s="3" r="A159">
-        <v>1975</v>
+        <v>1977</v>
       </c>
       <c s="2" r="B159"/>
       <c t="s" s="3" r="C159">
-        <v>1976</v>
+        <v>1978</v>
       </c>
       <c s="2" r="D159"/>
       <c t="s" s="11" r="E159">
-        <v>1977</v>
+        <v>1979</v>
       </c>
       <c t="s" s="3" r="F159">
-        <v>1978</v>
+        <v>1980</v>
       </c>
       <c t="s" s="3" r="G159">
-        <v>1979</v>
+        <v>1981</v>
       </c>
       <c t="s" s="3" r="H159">
-        <v>1980</v>
+        <v>1982</v>
       </c>
       <c t="s" s="3" r="I159">
-        <v>1981</v>
+        <v>1983</v>
       </c>
       <c t="s" s="3" r="J159">
-        <v>1982</v>
+        <v>1984</v>
       </c>
       <c t="s" s="3" r="K159">
-        <v>1983</v>
+        <v>1985</v>
       </c>
       <c t="s" s="3" r="L159">
-        <v>1984</v>
+        <v>1986</v>
       </c>
       <c t="s" s="3" r="M159">
-        <v>1985</v>
+        <v>1987</v>
       </c>
       <c t="s" s="3" r="N159">
-        <v>1986</v>
+        <v>1988</v>
       </c>
       <c t="s" s="3" r="O159">
-        <v>1987</v>
+        <v>1989</v>
       </c>
       <c s="8" r="P159">
         <v>540001.0</v>
@@ -28254,10 +28266,10 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="R159">
-        <v>1988</v>
+        <v>1990</v>
       </c>
       <c t="s" s="3" r="S159">
-        <v>1989</v>
+        <v>1991</v>
       </c>
       <c s="8" r="T159">
         <v>20.0</v>
@@ -28316,50 +28328,50 @@
       <c s="7" r="BL159"/>
       <c s="7" r="BM159"/>
       <c t="s" s="15" r="BN159">
-        <v>1990</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="160">
       <c t="s" s="3" r="A160">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c s="2" r="B160"/>
       <c t="s" s="3" r="C160">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c s="2" r="D160"/>
       <c t="s" s="11" r="E160">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c t="s" s="3" r="F160">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c t="s" s="3" r="G160">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c t="s" s="3" r="H160">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c t="s" s="3" r="I160">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c t="s" s="3" r="J160">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c t="s" s="3" r="K160">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c t="s" s="3" r="L160">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c t="s" s="3" r="M160">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c t="s" s="3" r="N160">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c t="s" s="3" r="O160">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c s="8" r="P160">
         <v>530000.0</v>
@@ -28368,10 +28380,10 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="R160">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c t="s" s="3" r="S160">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c s="8" r="T160">
         <v>20.0</v>
@@ -28430,50 +28442,50 @@
       <c s="7" r="BL160"/>
       <c s="7" r="BM160"/>
       <c t="s" s="15" r="BN160">
-        <v>2006</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="161">
       <c t="s" s="3" r="A161">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c s="2" r="B161"/>
       <c t="s" s="3" r="C161">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c s="2" r="D161"/>
       <c t="s" s="11" r="E161">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c t="s" s="3" r="F161">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c t="s" s="3" r="G161">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c t="s" s="3" r="H161">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c t="s" s="3" r="I161">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c t="s" s="3" r="J161">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c t="s" s="3" r="K161">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c t="s" s="3" r="L161">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c t="s" s="3" r="M161">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c t="s" s="3" r="N161">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c t="s" s="3" r="O161">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c s="8" r="P161">
         <v>216002.0</v>
@@ -28482,10 +28494,10 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="R161">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c t="s" s="3" r="S161">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c s="8" r="T161">
         <v>50.0</v>
@@ -28544,50 +28556,50 @@
       <c s="7" r="BL161"/>
       <c s="7" r="BM161"/>
       <c t="s" s="15" r="BN161">
-        <v>2022</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="162">
       <c t="s" s="3" r="A162">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c s="2" r="B162"/>
       <c t="s" s="3" r="C162">
-        <v>2024</v>
+        <v>2026</v>
       </c>
       <c s="2" r="D162"/>
       <c t="s" s="11" r="E162">
-        <v>2025</v>
+        <v>2027</v>
       </c>
       <c t="s" s="3" r="F162">
-        <v>2026</v>
+        <v>2028</v>
       </c>
       <c t="s" s="3" r="G162">
-        <v>2027</v>
+        <v>2029</v>
       </c>
       <c t="s" s="3" r="H162">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c t="s" s="3" r="I162">
-        <v>2029</v>
+        <v>2031</v>
       </c>
       <c t="s" s="3" r="J162">
-        <v>2030</v>
+        <v>2032</v>
       </c>
       <c t="s" s="3" r="K162">
-        <v>2031</v>
+        <v>2033</v>
       </c>
       <c t="s" s="3" r="L162">
-        <v>2032</v>
+        <v>2034</v>
       </c>
       <c t="s" s="3" r="M162">
-        <v>2033</v>
+        <v>2035</v>
       </c>
       <c t="s" s="3" r="N162">
-        <v>2034</v>
+        <v>2036</v>
       </c>
       <c t="s" s="3" r="O162">
-        <v>2035</v>
+        <v>2037</v>
       </c>
       <c s="8" r="P162">
         <v>215000.0</v>
@@ -28596,10 +28608,10 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="R162">
-        <v>2036</v>
+        <v>2038</v>
       </c>
       <c t="s" s="3" r="S162">
-        <v>2037</v>
+        <v>2039</v>
       </c>
       <c s="8" r="T162">
         <v>50.0</v>
@@ -28658,50 +28670,50 @@
       <c s="7" r="BL162"/>
       <c s="7" r="BM162"/>
       <c t="s" s="15" r="BN162">
-        <v>2038</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="163">
       <c t="s" s="3" r="A163">
-        <v>2039</v>
+        <v>2041</v>
       </c>
       <c s="2" r="B163"/>
       <c t="s" s="34" r="C163">
-        <v>2040</v>
+        <v>2042</v>
       </c>
       <c s="2" r="D163"/>
       <c t="s" s="11" r="E163">
-        <v>2041</v>
+        <v>2043</v>
       </c>
       <c t="s" s="3" r="F163">
-        <v>2042</v>
+        <v>2044</v>
       </c>
       <c t="s" s="3" r="G163">
-        <v>2043</v>
+        <v>2045</v>
       </c>
       <c t="s" s="3" r="H163">
-        <v>2044</v>
+        <v>2046</v>
       </c>
       <c t="s" s="3" r="I163">
-        <v>2045</v>
+        <v>2047</v>
       </c>
       <c t="s" s="3" r="J163">
-        <v>2046</v>
+        <v>2048</v>
       </c>
       <c t="s" s="3" r="K163">
-        <v>2047</v>
+        <v>2049</v>
       </c>
       <c t="s" s="3" r="L163">
-        <v>2048</v>
+        <v>2050</v>
       </c>
       <c t="s" s="3" r="M163">
-        <v>2049</v>
+        <v>2051</v>
       </c>
       <c t="s" s="3" r="N163">
-        <v>2050</v>
+        <v>2052</v>
       </c>
       <c t="s" s="3" r="O163">
-        <v>2051</v>
+        <v>2053</v>
       </c>
       <c s="8" r="P163">
         <v>135002.0</v>
@@ -28710,10 +28722,10 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="R163">
-        <v>2052</v>
+        <v>2054</v>
       </c>
       <c t="s" s="3" r="S163">
-        <v>2053</v>
+        <v>2055</v>
       </c>
       <c s="8" r="T163">
         <v>80.0</v>
@@ -28772,50 +28784,50 @@
       <c s="7" r="BL163"/>
       <c s="7" r="BM163"/>
       <c t="s" s="15" r="BN163">
-        <v>2054</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="164">
       <c t="s" s="3" r="A164">
-        <v>2055</v>
+        <v>2057</v>
       </c>
       <c s="2" r="B164"/>
       <c t="s" s="3" r="C164">
-        <v>2056</v>
+        <v>2058</v>
       </c>
       <c s="2" r="D164"/>
       <c t="s" s="11" r="E164">
-        <v>2057</v>
+        <v>2059</v>
       </c>
       <c t="s" s="3" r="F164">
-        <v>2058</v>
+        <v>2060</v>
       </c>
       <c t="s" s="3" r="G164">
-        <v>2059</v>
+        <v>2061</v>
       </c>
       <c t="s" s="3" r="H164">
-        <v>2060</v>
+        <v>2062</v>
       </c>
       <c t="s" s="3" r="I164">
-        <v>2061</v>
+        <v>2063</v>
       </c>
       <c t="s" s="3" r="J164">
-        <v>2062</v>
+        <v>2064</v>
       </c>
       <c t="s" s="3" r="K164">
-        <v>2063</v>
+        <v>2065</v>
       </c>
       <c t="s" s="3" r="L164">
-        <v>2064</v>
+        <v>2066</v>
       </c>
       <c t="s" s="3" r="M164">
-        <v>2065</v>
+        <v>2067</v>
       </c>
       <c t="s" s="3" r="N164">
-        <v>2066</v>
+        <v>2068</v>
       </c>
       <c t="s" s="3" r="O164">
-        <v>2067</v>
+        <v>2069</v>
       </c>
       <c s="8" r="P164">
         <v>134000.0</v>
@@ -28824,10 +28836,10 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="R164">
-        <v>2068</v>
+        <v>2070</v>
       </c>
       <c t="s" s="3" r="S164">
-        <v>2069</v>
+        <v>2071</v>
       </c>
       <c s="8" r="T164">
         <v>80.0</v>
@@ -28886,47 +28898,47 @@
       <c s="7" r="BL164"/>
       <c s="7" r="BM164"/>
       <c t="s" s="15" r="BN164">
-        <v>2070</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="165">
       <c t="s" s="3" r="A165">
-        <v>2071</v>
+        <v>2073</v>
       </c>
       <c s="2" r="B165"/>
       <c t="s" s="3" r="C165">
-        <v>2072</v>
+        <v>2074</v>
       </c>
       <c s="2" r="D165"/>
       <c t="s" s="35" r="E165">
-        <v>2073</v>
+        <v>2075</v>
       </c>
       <c t="s" s="33" r="F165">
-        <v>2074</v>
+        <v>2076</v>
       </c>
       <c t="s" s="3" r="G165">
-        <v>2075</v>
+        <v>2077</v>
       </c>
       <c t="s" s="3" r="H165">
-        <v>2076</v>
+        <v>2078</v>
       </c>
       <c t="s" s="3" r="I165">
-        <v>2077</v>
+        <v>2079</v>
       </c>
       <c t="s" s="3" r="J165">
-        <v>2078</v>
+        <v>2080</v>
       </c>
       <c t="s" s="3" r="K165">
-        <v>2079</v>
+        <v>2081</v>
       </c>
       <c t="s" s="3" r="L165">
-        <v>2080</v>
+        <v>2082</v>
       </c>
       <c t="s" s="3" r="M165">
-        <v>2081</v>
+        <v>2083</v>
       </c>
       <c t="s" s="3" r="N165">
-        <v>2082</v>
+        <v>2084</v>
       </c>
       <c s="7" r="O165"/>
       <c s="8" r="P165">
@@ -28936,10 +28948,10 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="R165">
-        <v>2083</v>
+        <v>2085</v>
       </c>
       <c t="s" s="3" r="S165">
-        <v>2084</v>
+        <v>2086</v>
       </c>
       <c s="8" r="T165">
         <v>100.0</v>
@@ -28978,13 +28990,13 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="AR165">
-        <v>2085</v>
+        <v>2087</v>
       </c>
       <c s="8" r="AS165">
         <v>45.99</v>
       </c>
       <c t="s" s="3" r="AT165">
-        <v>2086</v>
+        <v>2088</v>
       </c>
       <c s="7" r="AU165"/>
       <c s="7" r="AV165"/>
@@ -29023,45 +29035,45 @@
     </row>
     <row r="166">
       <c t="s" s="3" r="A166">
-        <v>2087</v>
+        <v>2089</v>
       </c>
       <c s="2" r="B166"/>
       <c t="s" s="3" r="C166">
-        <v>2088</v>
+        <v>2090</v>
       </c>
       <c s="2" r="D166"/>
       <c t="s" s="31" r="E166">
-        <v>2089</v>
+        <v>2091</v>
       </c>
       <c t="s" s="32" r="F166">
-        <v>2090</v>
+        <v>2092</v>
       </c>
       <c t="s" s="3" r="G166">
-        <v>2091</v>
+        <v>2093</v>
       </c>
       <c t="s" s="3" r="H166">
-        <v>2092</v>
+        <v>2094</v>
       </c>
       <c t="s" s="3" r="I166">
-        <v>2093</v>
+        <v>2095</v>
       </c>
       <c t="s" s="3" r="J166">
-        <v>2094</v>
+        <v>2096</v>
       </c>
       <c t="s" s="3" r="K166">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c t="s" s="3" r="L166">
-        <v>2096</v>
+        <v>2098</v>
       </c>
       <c t="s" s="3" r="M166">
-        <v>2097</v>
+        <v>2099</v>
       </c>
       <c t="s" s="3" r="N166">
-        <v>2098</v>
+        <v>2100</v>
       </c>
       <c t="s" s="3" r="O166">
-        <v>2099</v>
+        <v>2101</v>
       </c>
       <c s="8" r="P166">
         <v>140000.0</v>
@@ -29070,10 +29082,10 @@
         <v>2450.0</v>
       </c>
       <c t="s" s="3" r="R166">
-        <v>2100</v>
+        <v>2102</v>
       </c>
       <c t="s" s="3" r="S166">
-        <v>2101</v>
+        <v>2103</v>
       </c>
       <c s="8" r="T166">
         <v>100.0</v>
@@ -29112,13 +29124,13 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="AR166">
-        <v>2102</v>
+        <v>2104</v>
       </c>
       <c s="8" r="AS166">
         <v>313.73</v>
       </c>
       <c t="s" s="3" r="AT166">
-        <v>2103</v>
+        <v>2105</v>
       </c>
       <c s="7" r="AU166"/>
       <c s="7" r="AV166"/>
@@ -29157,45 +29169,45 @@
     </row>
     <row r="167">
       <c t="s" s="3" r="A167">
-        <v>2104</v>
+        <v>2106</v>
       </c>
       <c s="2" r="B167"/>
       <c t="s" s="3" r="C167">
-        <v>2105</v>
+        <v>2107</v>
       </c>
       <c s="2" r="D167"/>
       <c t="s" s="36" r="E167">
-        <v>2106</v>
+        <v>2108</v>
       </c>
       <c t="s" s="32" r="F167">
-        <v>2107</v>
+        <v>2109</v>
       </c>
       <c t="s" s="3" r="G167">
-        <v>2108</v>
+        <v>2110</v>
       </c>
       <c t="s" s="3" r="H167">
-        <v>2109</v>
+        <v>2111</v>
       </c>
       <c t="s" s="3" r="I167">
-        <v>2110</v>
+        <v>2112</v>
       </c>
       <c t="s" s="3" r="J167">
-        <v>2111</v>
+        <v>2113</v>
       </c>
       <c t="s" s="3" r="K167">
-        <v>2112</v>
+        <v>2114</v>
       </c>
       <c t="s" s="3" r="L167">
-        <v>2113</v>
+        <v>2115</v>
       </c>
       <c t="s" s="3" r="M167">
-        <v>2114</v>
+        <v>2116</v>
       </c>
       <c t="s" s="3" r="N167">
-        <v>2115</v>
+        <v>2117</v>
       </c>
       <c t="s" s="3" r="O167">
-        <v>2116</v>
+        <v>2118</v>
       </c>
       <c s="8" r="P167">
         <v>0.0</v>
@@ -29204,10 +29216,10 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="R167">
-        <v>2117</v>
+        <v>2119</v>
       </c>
       <c t="s" s="3" r="S167">
-        <v>2118</v>
+        <v>2120</v>
       </c>
       <c s="8" r="T167">
         <v>100.0</v>
@@ -29219,10 +29231,10 @@
         <v>49670.0</v>
       </c>
       <c t="s" s="3" r="W167">
-        <v>2119</v>
+        <v>2121</v>
       </c>
       <c t="s" s="3" r="X167">
-        <v>2120</v>
+        <v>2122</v>
       </c>
       <c s="8" r="Y167">
         <v>100.0</v>
@@ -29256,13 +29268,13 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="AR167">
-        <v>2121</v>
+        <v>2123</v>
       </c>
       <c s="8" r="AS167">
         <v>556.18</v>
       </c>
       <c t="s" s="3" r="AT167">
-        <v>2122</v>
+        <v>2124</v>
       </c>
       <c s="7" r="AU167"/>
       <c s="7" r="AV167"/>
@@ -29303,42 +29315,42 @@
     </row>
     <row r="168">
       <c t="s" s="3" r="A168">
-        <v>2123</v>
+        <v>2125</v>
       </c>
       <c s="2" r="B168"/>
       <c t="s" s="3" r="C168">
-        <v>2124</v>
+        <v>2126</v>
       </c>
       <c s="2" r="D168"/>
       <c t="s" s="31" r="E168">
-        <v>2125</v>
+        <v>2127</v>
       </c>
       <c t="s" s="32" r="F168">
-        <v>2126</v>
+        <v>2128</v>
       </c>
       <c t="s" s="3" r="G168">
-        <v>2127</v>
+        <v>2129</v>
       </c>
       <c t="s" s="3" r="H168">
-        <v>2128</v>
+        <v>2130</v>
       </c>
       <c t="s" s="3" r="I168">
-        <v>2129</v>
+        <v>2131</v>
       </c>
       <c t="s" s="3" r="J168">
-        <v>2130</v>
+        <v>2132</v>
       </c>
       <c t="s" s="3" r="K168">
-        <v>2131</v>
+        <v>2133</v>
       </c>
       <c t="s" s="3" r="L168">
-        <v>2132</v>
+        <v>2134</v>
       </c>
       <c t="s" s="3" r="M168">
-        <v>2133</v>
+        <v>2135</v>
       </c>
       <c t="s" s="3" r="N168">
-        <v>2134</v>
+        <v>2136</v>
       </c>
       <c s="7" r="O168"/>
       <c s="8" r="P168">
@@ -29348,10 +29360,10 @@
         <v>5400.0</v>
       </c>
       <c t="s" s="3" r="R168">
-        <v>2135</v>
+        <v>2137</v>
       </c>
       <c t="s" s="3" r="S168">
-        <v>2136</v>
+        <v>2138</v>
       </c>
       <c s="8" r="T168">
         <v>100.0</v>
@@ -29390,13 +29402,13 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="AR168">
-        <v>2137</v>
+        <v>2139</v>
       </c>
       <c s="8" r="AS168">
         <v>565.0</v>
       </c>
       <c t="s" s="3" r="AT168">
-        <v>2138</v>
+        <v>2140</v>
       </c>
       <c s="7" r="AU168"/>
       <c s="7" r="AV168"/>
@@ -29435,45 +29447,45 @@
     </row>
     <row r="169">
       <c t="s" s="3" r="A169">
-        <v>2139</v>
+        <v>2141</v>
       </c>
       <c s="2" r="B169"/>
       <c t="s" s="3" r="C169">
-        <v>2140</v>
+        <v>2142</v>
       </c>
       <c s="2" r="D169"/>
       <c t="s" s="31" r="E169">
-        <v>2141</v>
+        <v>2143</v>
       </c>
       <c t="s" s="32" r="F169">
-        <v>2142</v>
+        <v>2144</v>
       </c>
       <c t="s" s="3" r="G169">
-        <v>2143</v>
+        <v>2145</v>
       </c>
       <c t="s" s="3" r="H169">
-        <v>2144</v>
+        <v>2146</v>
       </c>
       <c t="s" s="3" r="I169">
-        <v>2145</v>
+        <v>2147</v>
       </c>
       <c t="s" s="3" r="J169">
-        <v>2146</v>
+        <v>2148</v>
       </c>
       <c t="s" s="3" r="K169">
-        <v>2147</v>
+        <v>2149</v>
       </c>
       <c t="s" s="3" r="L169">
-        <v>2148</v>
+        <v>2150</v>
       </c>
       <c t="s" s="3" r="M169">
-        <v>2149</v>
+        <v>2151</v>
       </c>
       <c t="s" s="3" r="N169">
-        <v>2150</v>
+        <v>2152</v>
       </c>
       <c t="s" s="3" r="O169">
-        <v>2151</v>
+        <v>2153</v>
       </c>
       <c s="8" r="P169">
         <v>195000.0</v>
@@ -29482,10 +29494,10 @@
         <v>12595.0</v>
       </c>
       <c t="s" s="3" r="R169">
-        <v>2152</v>
+        <v>2154</v>
       </c>
       <c t="s" s="3" r="S169">
-        <v>2153</v>
+        <v>2155</v>
       </c>
       <c s="8" r="T169">
         <v>100.0</v>
@@ -29524,13 +29536,13 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="AR169">
-        <v>2154</v>
+        <v>2156</v>
       </c>
       <c s="8" r="AS169">
         <v>771.2</v>
       </c>
       <c t="s" s="3" r="AT169">
-        <v>2155</v>
+        <v>2157</v>
       </c>
       <c s="7" r="AU169"/>
       <c s="7" r="AV169"/>
@@ -29571,42 +29583,42 @@
     </row>
     <row r="170">
       <c t="s" s="3" r="A170">
-        <v>2156</v>
+        <v>2158</v>
       </c>
       <c s="2" r="B170"/>
       <c t="s" s="3" r="C170">
-        <v>2157</v>
+        <v>2159</v>
       </c>
       <c s="2" r="D170"/>
       <c t="s" s="31" r="E170">
-        <v>2158</v>
+        <v>2160</v>
       </c>
       <c t="s" s="32" r="F170">
-        <v>2159</v>
+        <v>2161</v>
       </c>
       <c t="s" s="3" r="G170">
-        <v>2160</v>
+        <v>2162</v>
       </c>
       <c t="s" s="3" r="H170">
-        <v>2161</v>
+        <v>2163</v>
       </c>
       <c t="s" s="3" r="I170">
-        <v>2162</v>
+        <v>2164</v>
       </c>
       <c t="s" s="3" r="J170">
-        <v>2163</v>
+        <v>2165</v>
       </c>
       <c t="s" s="3" r="K170">
-        <v>2164</v>
+        <v>2166</v>
       </c>
       <c t="s" s="3" r="L170">
-        <v>2165</v>
+        <v>2167</v>
       </c>
       <c t="s" s="3" r="M170">
-        <v>2166</v>
+        <v>2168</v>
       </c>
       <c t="s" s="3" r="N170">
-        <v>2167</v>
+        <v>2169</v>
       </c>
       <c s="7" r="O170"/>
       <c s="8" r="P170">
@@ -29616,10 +29628,10 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="R170">
-        <v>2168</v>
+        <v>2170</v>
       </c>
       <c t="s" s="3" r="S170">
-        <v>2169</v>
+        <v>2171</v>
       </c>
       <c s="8" r="T170">
         <v>100.0</v>
@@ -29658,13 +29670,13 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="AR170">
-        <v>2170</v>
+        <v>2172</v>
       </c>
       <c s="8" r="AS170">
         <v>310.0</v>
       </c>
       <c t="s" s="3" r="AT170">
-        <v>2171</v>
+        <v>2173</v>
       </c>
       <c s="7" r="AU170"/>
       <c s="7" r="AV170"/>
@@ -29703,42 +29715,42 @@
     </row>
     <row r="171">
       <c t="s" s="3" r="A171">
-        <v>2172</v>
+        <v>2174</v>
       </c>
       <c s="2" r="B171"/>
       <c t="s" s="3" r="C171">
-        <v>2173</v>
+        <v>2175</v>
       </c>
       <c s="2" r="D171"/>
       <c t="s" s="31" r="E171">
-        <v>2174</v>
+        <v>2176</v>
       </c>
       <c t="s" s="32" r="F171">
-        <v>2175</v>
+        <v>2177</v>
       </c>
       <c t="s" s="3" r="G171">
-        <v>2176</v>
+        <v>2178</v>
       </c>
       <c t="s" s="3" r="H171">
-        <v>2177</v>
+        <v>2179</v>
       </c>
       <c t="s" s="3" r="I171">
-        <v>2178</v>
+        <v>2180</v>
       </c>
       <c t="s" s="3" r="J171">
-        <v>2179</v>
+        <v>2181</v>
       </c>
       <c t="s" s="3" r="K171">
-        <v>2180</v>
+        <v>2182</v>
       </c>
       <c t="s" s="3" r="L171">
-        <v>2181</v>
+        <v>2183</v>
       </c>
       <c t="s" s="3" r="M171">
-        <v>2182</v>
+        <v>2184</v>
       </c>
       <c t="s" s="3" r="N171">
-        <v>2183</v>
+        <v>2185</v>
       </c>
       <c s="7" r="O171"/>
       <c s="8" r="P171"/>
@@ -29780,13 +29792,13 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="AR171">
-        <v>2184</v>
+        <v>2186</v>
       </c>
       <c s="8" r="AS171">
         <v>310.0</v>
       </c>
       <c t="s" s="3" r="AT171">
-        <v>2185</v>
+        <v>2187</v>
       </c>
       <c s="7" r="AU171"/>
       <c s="7" r="AV171"/>
@@ -29825,42 +29837,42 @@
     </row>
     <row r="172">
       <c t="s" s="3" r="A172">
-        <v>2186</v>
+        <v>2188</v>
       </c>
       <c s="2" r="B172"/>
       <c t="s" s="3" r="C172">
-        <v>2187</v>
+        <v>2189</v>
       </c>
       <c s="2" r="D172"/>
       <c t="s" s="31" r="E172">
-        <v>2188</v>
+        <v>2190</v>
       </c>
       <c t="s" s="32" r="F172">
-        <v>2189</v>
+        <v>2191</v>
       </c>
       <c t="s" s="3" r="G172">
-        <v>2190</v>
+        <v>2192</v>
       </c>
       <c t="s" s="3" r="H172">
-        <v>2191</v>
+        <v>2193</v>
       </c>
       <c t="s" s="3" r="I172">
-        <v>2192</v>
+        <v>2194</v>
       </c>
       <c t="s" s="3" r="J172">
-        <v>2193</v>
+        <v>2195</v>
       </c>
       <c t="s" s="3" r="K172">
-        <v>2194</v>
+        <v>2196</v>
       </c>
       <c t="s" s="3" r="L172">
-        <v>2195</v>
+        <v>2197</v>
       </c>
       <c t="s" s="3" r="M172">
-        <v>2196</v>
+        <v>2198</v>
       </c>
       <c t="s" s="3" r="N172">
-        <v>2197</v>
+        <v>2199</v>
       </c>
       <c s="7" r="O172"/>
       <c s="8" r="P172">
@@ -29870,10 +29882,10 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="R172">
-        <v>2198</v>
+        <v>2200</v>
       </c>
       <c t="s" s="3" r="S172">
-        <v>2199</v>
+        <v>2201</v>
       </c>
       <c s="8" r="T172">
         <v>100.0</v>
@@ -29912,13 +29924,13 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="AR172">
-        <v>2200</v>
+        <v>2202</v>
       </c>
       <c s="8" r="AS172">
         <v>210.0</v>
       </c>
       <c t="s" s="3" r="AT172">
-        <v>2201</v>
+        <v>2203</v>
       </c>
       <c s="7" r="AU172"/>
       <c s="7" r="AV172"/>
@@ -29957,42 +29969,42 @@
     </row>
     <row r="173">
       <c t="s" s="3" r="A173">
-        <v>2202</v>
+        <v>2204</v>
       </c>
       <c s="2" r="B173"/>
       <c t="s" s="3" r="C173">
-        <v>2203</v>
+        <v>2205</v>
       </c>
       <c s="2" r="D173"/>
       <c t="s" s="31" r="E173">
-        <v>2204</v>
+        <v>2206</v>
       </c>
       <c t="s" s="32" r="F173">
-        <v>2205</v>
+        <v>2207</v>
       </c>
       <c t="s" s="3" r="G173">
-        <v>2206</v>
+        <v>2208</v>
       </c>
       <c t="s" s="3" r="H173">
-        <v>2207</v>
+        <v>2209</v>
       </c>
       <c t="s" s="3" r="I173">
-        <v>2208</v>
+        <v>2210</v>
       </c>
       <c t="s" s="3" r="J173">
-        <v>2209</v>
+        <v>2211</v>
       </c>
       <c t="s" s="3" r="K173">
-        <v>2210</v>
+        <v>2212</v>
       </c>
       <c t="s" s="3" r="L173">
-        <v>2211</v>
+        <v>2213</v>
       </c>
       <c t="s" s="3" r="M173">
-        <v>2212</v>
+        <v>2214</v>
       </c>
       <c t="s" s="3" r="N173">
-        <v>2213</v>
+        <v>2215</v>
       </c>
       <c s="7" r="O173"/>
       <c s="8" r="P173">
@@ -30002,10 +30014,10 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="R173">
-        <v>2214</v>
+        <v>2216</v>
       </c>
       <c t="s" s="3" r="S173">
-        <v>2215</v>
+        <v>2217</v>
       </c>
       <c s="8" r="T173">
         <v>100.0</v>
@@ -30044,13 +30056,13 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="AR173">
-        <v>2216</v>
+        <v>2218</v>
       </c>
       <c s="8" r="AS173">
         <v>210.0</v>
       </c>
       <c t="s" s="3" r="AT173">
-        <v>2217</v>
+        <v>2219</v>
       </c>
       <c s="7" r="AU173"/>
       <c s="7" r="AV173"/>
@@ -30089,42 +30101,42 @@
     </row>
     <row r="174">
       <c t="s" s="3" r="A174">
-        <v>2218</v>
+        <v>2220</v>
       </c>
       <c s="2" r="B174"/>
       <c t="s" s="3" r="C174">
-        <v>2219</v>
+        <v>2221</v>
       </c>
       <c s="2" r="D174"/>
       <c t="s" s="31" r="E174">
-        <v>2220</v>
+        <v>2222</v>
       </c>
       <c t="s" s="32" r="F174">
-        <v>2221</v>
+        <v>2223</v>
       </c>
       <c t="s" s="3" r="G174">
-        <v>2222</v>
+        <v>2224</v>
       </c>
       <c t="s" s="3" r="H174">
-        <v>2223</v>
+        <v>2225</v>
       </c>
       <c t="s" s="3" r="I174">
-        <v>2224</v>
+        <v>2226</v>
       </c>
       <c t="s" s="3" r="J174">
-        <v>2225</v>
+        <v>2227</v>
       </c>
       <c t="s" s="3" r="K174">
-        <v>2226</v>
+        <v>2228</v>
       </c>
       <c t="s" s="3" r="L174">
-        <v>2227</v>
+        <v>2229</v>
       </c>
       <c t="s" s="3" r="M174">
-        <v>2228</v>
+        <v>2230</v>
       </c>
       <c t="s" s="3" r="N174">
-        <v>2229</v>
+        <v>2231</v>
       </c>
       <c s="7" r="O174"/>
       <c s="8" r="P174">
@@ -30134,10 +30146,10 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="R174">
-        <v>2230</v>
+        <v>2232</v>
       </c>
       <c t="s" s="3" r="S174">
-        <v>2231</v>
+        <v>2233</v>
       </c>
       <c s="8" r="T174">
         <v>100.0</v>
@@ -30176,13 +30188,13 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="AR174">
-        <v>2232</v>
+        <v>2234</v>
       </c>
       <c s="8" r="AS174">
         <v>160.0</v>
       </c>
       <c t="s" s="3" r="AT174">
-        <v>2233</v>
+        <v>2235</v>
       </c>
       <c s="7" r="AU174"/>
       <c s="7" r="AV174"/>
@@ -30221,42 +30233,42 @@
     </row>
     <row r="175">
       <c t="s" s="3" r="A175">
-        <v>2234</v>
+        <v>2236</v>
       </c>
       <c s="2" r="B175"/>
       <c t="s" s="3" r="C175">
-        <v>2235</v>
+        <v>2237</v>
       </c>
       <c s="2" r="D175"/>
       <c t="s" s="31" r="E175">
-        <v>2236</v>
+        <v>2238</v>
       </c>
       <c t="s" s="32" r="F175">
-        <v>2237</v>
+        <v>2239</v>
       </c>
       <c t="s" s="3" r="G175">
-        <v>2238</v>
+        <v>2240</v>
       </c>
       <c t="s" s="3" r="H175">
-        <v>2239</v>
+        <v>2241</v>
       </c>
       <c t="s" s="3" r="I175">
-        <v>2240</v>
+        <v>2242</v>
       </c>
       <c t="s" s="3" r="J175">
-        <v>2241</v>
+        <v>2243</v>
       </c>
       <c t="s" s="3" r="K175">
-        <v>2242</v>
+        <v>2244</v>
       </c>
       <c t="s" s="3" r="L175">
-        <v>2243</v>
+        <v>2245</v>
       </c>
       <c t="s" s="3" r="M175">
-        <v>2244</v>
+        <v>2246</v>
       </c>
       <c t="s" s="3" r="N175">
-        <v>2245</v>
+        <v>2247</v>
       </c>
       <c s="7" r="O175"/>
       <c s="8" r="P175">
@@ -30266,10 +30278,10 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="R175">
-        <v>2246</v>
+        <v>2248</v>
       </c>
       <c t="s" s="3" r="S175">
-        <v>2247</v>
+        <v>2249</v>
       </c>
       <c s="8" r="T175">
         <v>100.0</v>
@@ -30308,13 +30320,13 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="AR175">
-        <v>2248</v>
+        <v>2250</v>
       </c>
       <c s="8" r="AS175">
         <v>160.0</v>
       </c>
       <c t="s" s="3" r="AT175">
-        <v>2249</v>
+        <v>2251</v>
       </c>
       <c s="7" r="AU175"/>
       <c s="7" r="AV175"/>
@@ -30353,45 +30365,45 @@
     </row>
     <row r="176">
       <c t="s" s="3" r="A176">
-        <v>2250</v>
+        <v>2252</v>
       </c>
       <c s="2" r="B176"/>
       <c t="s" s="3" r="C176">
-        <v>2251</v>
+        <v>2253</v>
       </c>
       <c s="2" r="D176"/>
       <c t="s" s="31" r="E176">
-        <v>2252</v>
+        <v>2254</v>
       </c>
       <c t="s" s="32" r="F176">
-        <v>2253</v>
+        <v>2255</v>
       </c>
       <c t="s" s="3" r="G176">
-        <v>2254</v>
+        <v>2256</v>
       </c>
       <c t="s" s="3" r="H176">
-        <v>2255</v>
+        <v>2257</v>
       </c>
       <c t="s" s="3" r="I176">
-        <v>2256</v>
+        <v>2258</v>
       </c>
       <c t="s" s="3" r="J176">
-        <v>2257</v>
+        <v>2259</v>
       </c>
       <c t="s" s="3" r="K176">
-        <v>2258</v>
+        <v>2260</v>
       </c>
       <c t="s" s="3" r="L176">
-        <v>2259</v>
+        <v>2261</v>
       </c>
       <c t="s" s="3" r="M176">
-        <v>2260</v>
+        <v>2262</v>
       </c>
       <c t="s" s="3" r="N176">
-        <v>2261</v>
+        <v>2263</v>
       </c>
       <c t="s" s="3" r="O176">
-        <v>2262</v>
+        <v>2264</v>
       </c>
       <c s="8" r="P176">
         <v>0.0</v>
@@ -30400,10 +30412,10 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="R176">
-        <v>2263</v>
+        <v>2265</v>
       </c>
       <c t="s" s="3" r="S176">
-        <v>2264</v>
+        <v>2266</v>
       </c>
       <c s="8" r="T176">
         <v>100.0</v>
@@ -30442,13 +30454,13 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="AR176">
-        <v>2265</v>
+        <v>2267</v>
       </c>
       <c s="8" r="AS176">
         <v>800.0</v>
       </c>
       <c t="s" s="3" r="AT176">
-        <v>2266</v>
+        <v>2268</v>
       </c>
       <c s="7" r="AU176"/>
       <c s="7" r="AV176"/>
@@ -30487,45 +30499,45 @@
     </row>
     <row r="177">
       <c t="s" s="3" r="A177">
-        <v>2267</v>
+        <v>2269</v>
       </c>
       <c s="2" r="B177"/>
       <c t="s" s="3" r="C177">
-        <v>2268</v>
+        <v>2270</v>
       </c>
       <c s="2" r="D177"/>
       <c t="s" s="31" r="E177">
-        <v>2269</v>
+        <v>2271</v>
       </c>
       <c t="s" s="32" r="F177">
-        <v>2270</v>
+        <v>2272</v>
       </c>
       <c t="s" s="3" r="G177">
-        <v>2271</v>
+        <v>2273</v>
       </c>
       <c t="s" s="3" r="H177">
-        <v>2272</v>
+        <v>2274</v>
       </c>
       <c t="s" s="3" r="I177">
-        <v>2273</v>
+        <v>2275</v>
       </c>
       <c t="s" s="3" r="J177">
-        <v>2274</v>
+        <v>2276</v>
       </c>
       <c t="s" s="3" r="K177">
-        <v>2275</v>
+        <v>2277</v>
       </c>
       <c t="s" s="3" r="L177">
-        <v>2276</v>
+        <v>2278</v>
       </c>
       <c t="s" s="3" r="M177">
-        <v>2277</v>
+        <v>2279</v>
       </c>
       <c t="s" s="3" r="N177">
-        <v>2278</v>
+        <v>2280</v>
       </c>
       <c t="s" s="3" r="O177">
-        <v>2279</v>
+        <v>2281</v>
       </c>
       <c s="7" r="P177"/>
       <c s="7" r="Q177"/>
@@ -30581,42 +30593,42 @@
     </row>
     <row r="178">
       <c t="s" s="3" r="A178">
-        <v>2280</v>
+        <v>2282</v>
       </c>
       <c s="2" r="B178"/>
       <c t="s" s="3" r="C178">
-        <v>2281</v>
+        <v>2283</v>
       </c>
       <c s="2" r="D178"/>
       <c t="s" s="31" r="E178">
-        <v>2282</v>
+        <v>2284</v>
       </c>
       <c t="s" s="32" r="F178">
-        <v>2283</v>
+        <v>2285</v>
       </c>
       <c t="s" s="3" r="G178">
-        <v>2284</v>
+        <v>2286</v>
       </c>
       <c t="s" s="3" r="H178">
-        <v>2285</v>
+        <v>2287</v>
       </c>
       <c t="s" s="3" r="I178">
-        <v>2286</v>
+        <v>2288</v>
       </c>
       <c t="s" s="3" r="J178">
-        <v>2287</v>
+        <v>2289</v>
       </c>
       <c t="s" s="3" r="K178">
-        <v>2288</v>
+        <v>2290</v>
       </c>
       <c t="s" s="3" r="L178">
-        <v>2289</v>
+        <v>2291</v>
       </c>
       <c t="s" s="3" r="M178">
-        <v>2290</v>
+        <v>2292</v>
       </c>
       <c t="s" s="3" r="N178">
-        <v>2291</v>
+        <v>2293</v>
       </c>
       <c s="7" r="O178"/>
       <c s="8" r="P178">
@@ -30626,10 +30638,10 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="R178">
-        <v>2292</v>
+        <v>2294</v>
       </c>
       <c t="s" s="3" r="S178">
-        <v>2293</v>
+        <v>2295</v>
       </c>
       <c s="8" r="T178">
         <v>100.0</v>
@@ -30668,13 +30680,13 @@
         <v>2657.0</v>
       </c>
       <c t="s" s="3" r="AR178">
-        <v>2294</v>
+        <v>2296</v>
       </c>
       <c s="8" r="AS178">
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="AT178">
-        <v>2295</v>
+        <v>2297</v>
       </c>
       <c s="7" r="AU178"/>
       <c s="7" r="AV178"/>
@@ -30715,42 +30727,42 @@
     </row>
     <row r="179">
       <c t="s" s="3" r="A179">
-        <v>2296</v>
+        <v>2298</v>
       </c>
       <c s="2" r="B179"/>
       <c t="s" s="3" r="C179">
-        <v>2297</v>
+        <v>2299</v>
       </c>
       <c s="2" r="D179"/>
       <c t="s" s="31" r="E179">
-        <v>2298</v>
+        <v>2300</v>
       </c>
       <c t="s" s="32" r="F179">
-        <v>2299</v>
+        <v>2301</v>
       </c>
       <c t="s" s="3" r="G179">
-        <v>2300</v>
+        <v>2302</v>
       </c>
       <c t="s" s="3" r="H179">
-        <v>2301</v>
+        <v>2303</v>
       </c>
       <c t="s" s="3" r="I179">
-        <v>2302</v>
+        <v>2304</v>
       </c>
       <c t="s" s="3" r="J179">
-        <v>2303</v>
+        <v>2305</v>
       </c>
       <c t="s" s="3" r="K179">
-        <v>2304</v>
+        <v>2306</v>
       </c>
       <c t="s" s="3" r="L179">
-        <v>2305</v>
+        <v>2307</v>
       </c>
       <c t="s" s="3" r="M179">
-        <v>2306</v>
+        <v>2308</v>
       </c>
       <c t="s" s="3" r="N179">
-        <v>2307</v>
+        <v>2309</v>
       </c>
       <c s="7" r="O179"/>
       <c s="8" r="P179">
@@ -30760,10 +30772,10 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="R179">
-        <v>2308</v>
+        <v>2310</v>
       </c>
       <c t="s" s="3" r="S179">
-        <v>2309</v>
+        <v>2311</v>
       </c>
       <c s="8" r="T179">
         <v>100.0</v>
@@ -30802,13 +30814,13 @@
         <v>2657.01</v>
       </c>
       <c t="s" s="3" r="AR179">
-        <v>2310</v>
+        <v>2312</v>
       </c>
       <c s="8" r="AS179">
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="AT179">
-        <v>2311</v>
+        <v>2313</v>
       </c>
       <c s="7" r="AU179"/>
       <c s="7" r="AV179"/>
@@ -30833,42 +30845,42 @@
     </row>
     <row r="180">
       <c t="s" s="3" r="A180">
-        <v>2312</v>
+        <v>2314</v>
       </c>
       <c s="2" r="B180"/>
       <c t="s" s="3" r="C180">
-        <v>2313</v>
+        <v>2315</v>
       </c>
       <c s="2" r="D180"/>
       <c t="s" s="31" r="E180">
-        <v>2314</v>
+        <v>2316</v>
       </c>
       <c t="s" s="32" r="F180">
-        <v>2315</v>
+        <v>2317</v>
       </c>
       <c t="s" s="3" r="G180">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c t="s" s="3" r="H180">
-        <v>2317</v>
+        <v>2319</v>
       </c>
       <c t="s" s="3" r="I180">
-        <v>2318</v>
+        <v>2320</v>
       </c>
       <c t="s" s="3" r="J180">
-        <v>2319</v>
+        <v>2321</v>
       </c>
       <c t="s" s="3" r="K180">
-        <v>2320</v>
+        <v>2322</v>
       </c>
       <c t="s" s="3" r="L180">
-        <v>2321</v>
+        <v>2323</v>
       </c>
       <c t="s" s="3" r="M180">
-        <v>2322</v>
+        <v>2324</v>
       </c>
       <c t="s" s="3" r="N180">
-        <v>2323</v>
+        <v>2325</v>
       </c>
       <c s="7" r="O180"/>
       <c s="8" r="P180">
@@ -30878,10 +30890,10 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="R180">
-        <v>2324</v>
+        <v>2326</v>
       </c>
       <c t="s" s="3" r="S180">
-        <v>2325</v>
+        <v>2327</v>
       </c>
       <c s="8" r="T180">
         <v>100.0</v>
@@ -30920,13 +30932,13 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="AR180">
-        <v>2326</v>
+        <v>2328</v>
       </c>
       <c s="8" r="AS180">
         <v>500.0</v>
       </c>
       <c t="s" s="3" r="AT180">
-        <v>2327</v>
+        <v>2329</v>
       </c>
       <c s="7" r="AU180"/>
       <c s="7" r="AV180"/>
@@ -30967,42 +30979,42 @@
     </row>
     <row r="181">
       <c t="s" s="3" r="A181">
-        <v>2328</v>
+        <v>2330</v>
       </c>
       <c s="2" r="B181"/>
       <c t="s" s="3" r="C181">
-        <v>2329</v>
+        <v>2331</v>
       </c>
       <c s="2" r="D181"/>
       <c t="s" s="31" r="E181">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c t="s" s="32" r="F181">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c t="s" s="3" r="G181">
-        <v>2332</v>
+        <v>2334</v>
       </c>
       <c t="s" s="3" r="H181">
-        <v>2333</v>
+        <v>2335</v>
       </c>
       <c t="s" s="3" r="I181">
-        <v>2334</v>
+        <v>2336</v>
       </c>
       <c t="s" s="3" r="J181">
-        <v>2335</v>
+        <v>2337</v>
       </c>
       <c t="s" s="3" r="K181">
-        <v>2336</v>
+        <v>2338</v>
       </c>
       <c t="s" s="3" r="L181">
-        <v>2337</v>
+        <v>2339</v>
       </c>
       <c t="s" s="3" r="M181">
-        <v>2338</v>
+        <v>2340</v>
       </c>
       <c t="s" s="3" r="N181">
-        <v>2339</v>
+        <v>2341</v>
       </c>
       <c s="7" r="O181"/>
       <c s="8" r="P181">
@@ -31012,10 +31024,10 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="R181">
-        <v>2340</v>
+        <v>2342</v>
       </c>
       <c t="s" s="3" r="S181">
-        <v>2341</v>
+        <v>2343</v>
       </c>
       <c s="8" r="T181">
         <v>100.0</v>
@@ -31077,42 +31089,42 @@
     </row>
     <row r="182">
       <c t="s" s="3" r="A182">
-        <v>2342</v>
+        <v>2344</v>
       </c>
       <c s="2" r="B182"/>
       <c t="s" s="3" r="C182">
-        <v>2343</v>
+        <v>2345</v>
       </c>
       <c s="2" r="D182"/>
       <c t="s" s="31" r="E182">
-        <v>2344</v>
+        <v>2346</v>
       </c>
       <c t="s" s="32" r="F182">
-        <v>2345</v>
+        <v>2347</v>
       </c>
       <c t="s" s="3" r="G182">
-        <v>2346</v>
+        <v>2348</v>
       </c>
       <c t="s" s="3" r="H182">
-        <v>2347</v>
+        <v>2349</v>
       </c>
       <c t="s" s="3" r="I182">
-        <v>2348</v>
+        <v>2350</v>
       </c>
       <c t="s" s="3" r="J182">
-        <v>2349</v>
+        <v>2351</v>
       </c>
       <c t="s" s="3" r="K182">
-        <v>2350</v>
+        <v>2352</v>
       </c>
       <c t="s" s="3" r="L182">
-        <v>2351</v>
+        <v>2353</v>
       </c>
       <c t="s" s="3" r="M182">
-        <v>2352</v>
+        <v>2354</v>
       </c>
       <c t="s" s="3" r="N182">
-        <v>2353</v>
+        <v>2355</v>
       </c>
       <c s="7" r="O182"/>
       <c s="8" r="P182">
@@ -31122,10 +31134,10 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="R182">
-        <v>2354</v>
+        <v>2356</v>
       </c>
       <c t="s" s="3" r="S182">
-        <v>2355</v>
+        <v>2357</v>
       </c>
       <c s="8" r="T182">
         <v>100.0</v>
@@ -31172,13 +31184,13 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="AR182">
-        <v>2356</v>
+        <v>2358</v>
       </c>
       <c s="8" r="AS182">
         <v>912.46</v>
       </c>
       <c t="s" s="3" r="AT182">
-        <v>2357</v>
+        <v>2359</v>
       </c>
       <c s="8" r="AU182">
         <v>0.0</v>
@@ -31187,7 +31199,7 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="AW182">
-        <v>2358</v>
+        <v>2360</v>
       </c>
       <c s="7" r="AX182"/>
       <c s="7" r="AY182"/>
@@ -31237,42 +31249,42 @@
     </row>
     <row r="183">
       <c t="s" s="3" r="A183">
-        <v>2359</v>
+        <v>2361</v>
       </c>
       <c s="2" r="B183"/>
       <c t="s" s="3" r="C183">
-        <v>2360</v>
+        <v>2362</v>
       </c>
       <c s="2" r="D183"/>
       <c t="s" s="31" r="E183">
-        <v>2361</v>
+        <v>2363</v>
       </c>
       <c t="s" s="32" r="F183">
-        <v>2362</v>
+        <v>2364</v>
       </c>
       <c t="s" s="3" r="G183">
-        <v>2363</v>
+        <v>2365</v>
       </c>
       <c t="s" s="3" r="H183">
-        <v>2364</v>
+        <v>2366</v>
       </c>
       <c t="s" s="3" r="I183">
-        <v>2365</v>
+        <v>2367</v>
       </c>
       <c t="s" s="3" r="J183">
-        <v>2366</v>
+        <v>2368</v>
       </c>
       <c t="s" s="3" r="K183">
-        <v>2367</v>
+        <v>2369</v>
       </c>
       <c t="s" s="3" r="L183">
-        <v>2368</v>
+        <v>2370</v>
       </c>
       <c t="s" s="3" r="M183">
-        <v>2369</v>
+        <v>2371</v>
       </c>
       <c t="s" s="3" r="N183">
-        <v>2370</v>
+        <v>2372</v>
       </c>
       <c s="7" r="O183"/>
       <c s="8" r="P183">
@@ -31282,10 +31294,10 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="R183">
-        <v>2371</v>
+        <v>2373</v>
       </c>
       <c t="s" s="3" r="S183">
-        <v>2372</v>
+        <v>2374</v>
       </c>
       <c s="8" r="T183">
         <v>100.0</v>
@@ -31332,13 +31344,13 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="AR183">
-        <v>2373</v>
+        <v>2375</v>
       </c>
       <c s="8" r="AS183">
         <v>912.46</v>
       </c>
       <c t="s" s="3" r="AT183">
-        <v>2374</v>
+        <v>2376</v>
       </c>
       <c s="8" r="AU183">
         <v>0.0</v>
@@ -31347,7 +31359,7 @@
         <v>0.01</v>
       </c>
       <c t="s" s="3" r="AW183">
-        <v>2375</v>
+        <v>2377</v>
       </c>
       <c s="7" r="AX183"/>
       <c s="7" r="AY183"/>
@@ -31467,7 +31479,7 @@
       <c s="2" r="A185"/>
       <c s="2" r="B185"/>
       <c t="s" s="6" r="C185">
-        <v>2376</v>
+        <v>2378</v>
       </c>
       <c s="2" r="D185"/>
       <c s="2" r="E185"/>
@@ -31535,42 +31547,42 @@
     </row>
     <row r="186">
       <c t="s" s="3" r="A186">
-        <v>2377</v>
+        <v>2379</v>
       </c>
       <c s="2" r="B186"/>
       <c t="s" s="3" r="C186">
-        <v>2378</v>
+        <v>2380</v>
       </c>
       <c s="2" r="D186"/>
       <c t="s" s="31" r="E186">
-        <v>2379</v>
+        <v>2381</v>
       </c>
       <c t="s" s="32" r="F186">
-        <v>2380</v>
+        <v>2382</v>
       </c>
       <c t="s" s="3" r="G186">
-        <v>2381</v>
+        <v>2383</v>
       </c>
       <c t="s" s="3" r="H186">
-        <v>2382</v>
+        <v>2384</v>
       </c>
       <c t="s" s="3" r="I186">
-        <v>2383</v>
+        <v>2385</v>
       </c>
       <c t="s" s="3" r="J186">
-        <v>2384</v>
+        <v>2386</v>
       </c>
       <c t="s" s="3" r="K186">
-        <v>2385</v>
+        <v>2387</v>
       </c>
       <c t="s" s="3" r="L186">
-        <v>2386</v>
+        <v>2388</v>
       </c>
       <c t="s" s="3" r="M186">
-        <v>2387</v>
+        <v>2389</v>
       </c>
       <c t="s" s="3" r="N186">
-        <v>2388</v>
+        <v>2390</v>
       </c>
       <c s="7" r="O186"/>
       <c s="8" r="P186">
@@ -31580,10 +31592,10 @@
         <v>10000.0</v>
       </c>
       <c t="s" s="3" r="R186">
-        <v>2389</v>
+        <v>2391</v>
       </c>
       <c t="s" s="3" r="S186">
-        <v>2390</v>
+        <v>2392</v>
       </c>
       <c s="8" r="T186">
         <v>100.0</v>
@@ -31622,13 +31634,13 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="AR186">
-        <v>2391</v>
+        <v>2393</v>
       </c>
       <c s="8" r="AS186">
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="AT186">
-        <v>2392</v>
+        <v>2394</v>
       </c>
       <c s="7" r="AU186"/>
       <c s="7" r="AV186"/>
@@ -31667,42 +31679,42 @@
     </row>
     <row r="187">
       <c t="s" s="3" r="A187">
-        <v>2393</v>
+        <v>2395</v>
       </c>
       <c s="2" r="B187"/>
       <c t="s" s="3" r="C187">
-        <v>2394</v>
+        <v>2396</v>
       </c>
       <c s="2" r="D187"/>
       <c t="s" s="31" r="E187">
-        <v>2395</v>
+        <v>2397</v>
       </c>
       <c t="s" s="32" r="F187">
-        <v>2396</v>
+        <v>2398</v>
       </c>
       <c t="s" s="3" r="G187">
-        <v>2397</v>
+        <v>2399</v>
       </c>
       <c t="s" s="3" r="H187">
-        <v>2398</v>
+        <v>2400</v>
       </c>
       <c t="s" s="3" r="I187">
-        <v>2399</v>
+        <v>2401</v>
       </c>
       <c t="s" s="3" r="J187">
-        <v>2400</v>
+        <v>2402</v>
       </c>
       <c t="s" s="3" r="K187">
-        <v>2401</v>
+        <v>2403</v>
       </c>
       <c t="s" s="3" r="L187">
-        <v>2402</v>
+        <v>2404</v>
       </c>
       <c t="s" s="3" r="M187">
-        <v>2403</v>
+        <v>2405</v>
       </c>
       <c t="s" s="3" r="N187">
-        <v>2404</v>
+        <v>2406</v>
       </c>
       <c s="7" r="O187"/>
       <c s="8" r="P187">
@@ -31712,10 +31724,10 @@
         <v>34560.0</v>
       </c>
       <c t="s" s="3" r="R187">
-        <v>2405</v>
+        <v>2407</v>
       </c>
       <c t="s" s="3" r="S187">
-        <v>2406</v>
+        <v>2408</v>
       </c>
       <c s="8" r="T187">
         <v>100.0</v>
@@ -31754,13 +31766,13 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="AR187">
-        <v>2407</v>
+        <v>2409</v>
       </c>
       <c s="8" r="AS187">
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="AT187">
-        <v>2408</v>
+        <v>2410</v>
       </c>
       <c s="7" r="AU187"/>
       <c s="7" r="AV187"/>
@@ -31799,42 +31811,42 @@
     </row>
     <row r="188">
       <c t="s" s="3" r="A188">
-        <v>2409</v>
+        <v>2411</v>
       </c>
       <c s="2" r="B188"/>
       <c t="s" s="3" r="C188">
-        <v>2410</v>
+        <v>2412</v>
       </c>
       <c s="2" r="D188"/>
       <c t="s" s="11" r="E188">
-        <v>2411</v>
+        <v>2413</v>
       </c>
       <c t="s" s="3" r="F188">
-        <v>2412</v>
+        <v>2414</v>
       </c>
       <c t="s" s="3" r="G188">
-        <v>2413</v>
+        <v>2415</v>
       </c>
       <c t="s" s="3" r="H188">
-        <v>2414</v>
+        <v>2416</v>
       </c>
       <c t="s" s="3" r="I188">
-        <v>2415</v>
+        <v>2417</v>
       </c>
       <c t="s" s="3" r="J188">
-        <v>2416</v>
+        <v>2418</v>
       </c>
       <c t="s" s="3" r="K188">
-        <v>2417</v>
+        <v>2419</v>
       </c>
       <c t="s" s="3" r="L188">
-        <v>2418</v>
+        <v>2420</v>
       </c>
       <c t="s" s="3" r="M188">
-        <v>2419</v>
+        <v>2421</v>
       </c>
       <c t="s" s="3" r="N188">
-        <v>2420</v>
+        <v>2422</v>
       </c>
       <c s="7" r="O188"/>
       <c s="8" r="P188">
@@ -31844,10 +31856,10 @@
         <v>34560.0</v>
       </c>
       <c t="s" s="3" r="R188">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c t="s" s="3" r="S188">
-        <v>2422</v>
+        <v>2424</v>
       </c>
       <c s="8" r="T188">
         <v>50.0</v>
@@ -31886,13 +31898,13 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="AR188">
-        <v>2423</v>
+        <v>2425</v>
       </c>
       <c s="8" r="AS188">
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="AT188">
-        <v>2424</v>
+        <v>2426</v>
       </c>
       <c s="7" r="AU188"/>
       <c s="7" r="AV188"/>
@@ -31928,47 +31940,47 @@
       <c s="7" r="BL188"/>
       <c s="7" r="BM188"/>
       <c t="s" s="15" r="BN188">
-        <v>2425</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="189">
       <c t="s" s="3" r="A189">
-        <v>2426</v>
+        <v>2428</v>
       </c>
       <c s="2" r="B189"/>
       <c t="s" s="3" r="C189">
-        <v>2427</v>
+        <v>2429</v>
       </c>
       <c s="2" r="D189"/>
       <c t="s" s="31" r="E189">
-        <v>2428</v>
+        <v>2430</v>
       </c>
       <c t="s" s="32" r="F189">
-        <v>2429</v>
+        <v>2431</v>
       </c>
       <c t="s" s="3" r="G189">
-        <v>2430</v>
+        <v>2432</v>
       </c>
       <c t="s" s="3" r="H189">
-        <v>2431</v>
+        <v>2433</v>
       </c>
       <c t="s" s="3" r="I189">
-        <v>2432</v>
+        <v>2434</v>
       </c>
       <c t="s" s="3" r="J189">
-        <v>2433</v>
+        <v>2435</v>
       </c>
       <c t="s" s="3" r="K189">
-        <v>2434</v>
+        <v>2436</v>
       </c>
       <c t="s" s="3" r="L189">
-        <v>2435</v>
+        <v>2437</v>
       </c>
       <c t="s" s="3" r="M189">
-        <v>2436</v>
+        <v>2438</v>
       </c>
       <c t="s" s="3" r="N189">
-        <v>2437</v>
+        <v>2439</v>
       </c>
       <c s="7" r="O189"/>
       <c s="8" r="P189">
@@ -31978,10 +31990,10 @@
         <v>75000.0</v>
       </c>
       <c t="s" s="3" r="R189">
-        <v>2438</v>
+        <v>2440</v>
       </c>
       <c t="s" s="3" r="S189">
-        <v>2439</v>
+        <v>2441</v>
       </c>
       <c s="8" r="T189">
         <v>100.0</v>
@@ -31993,10 +32005,10 @@
         <v>25000.0</v>
       </c>
       <c t="s" s="3" r="W189">
-        <v>2440</v>
+        <v>2442</v>
       </c>
       <c t="s" s="3" r="X189">
-        <v>2441</v>
+        <v>2443</v>
       </c>
       <c s="8" r="Y189">
         <v>100.0</v>
@@ -32030,13 +32042,13 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="AR189">
-        <v>2442</v>
+        <v>2444</v>
       </c>
       <c s="8" r="AS189">
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="AT189">
-        <v>2443</v>
+        <v>2445</v>
       </c>
       <c s="7" r="AU189"/>
       <c s="7" r="AV189"/>
@@ -32075,42 +32087,42 @@
     </row>
     <row r="190">
       <c t="s" s="3" r="A190">
-        <v>2444</v>
+        <v>2446</v>
       </c>
       <c s="2" r="B190"/>
       <c t="s" s="3" r="C190">
-        <v>2445</v>
+        <v>2447</v>
       </c>
       <c s="2" r="D190"/>
       <c t="s" s="31" r="E190">
-        <v>2446</v>
+        <v>2448</v>
       </c>
       <c t="s" s="32" r="F190">
-        <v>2447</v>
+        <v>2449</v>
       </c>
       <c t="s" s="3" r="G190">
-        <v>2448</v>
+        <v>2450</v>
       </c>
       <c t="s" s="3" r="H190">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c t="s" s="3" r="I190">
-        <v>2450</v>
+        <v>2452</v>
       </c>
       <c t="s" s="3" r="J190">
-        <v>2451</v>
+        <v>2453</v>
       </c>
       <c t="s" s="3" r="K190">
-        <v>2452</v>
+        <v>2454</v>
       </c>
       <c t="s" s="3" r="L190">
-        <v>2453</v>
+        <v>2455</v>
       </c>
       <c t="s" s="3" r="M190">
-        <v>2454</v>
+        <v>2456</v>
       </c>
       <c t="s" s="3" r="N190">
-        <v>2455</v>
+        <v>2457</v>
       </c>
       <c s="7" r="O190"/>
       <c s="8" r="P190">
@@ -32120,10 +32132,10 @@
         <v>75000.0</v>
       </c>
       <c t="s" s="3" r="R190">
-        <v>2456</v>
+        <v>2458</v>
       </c>
       <c t="s" s="3" r="S190">
-        <v>2457</v>
+        <v>2459</v>
       </c>
       <c s="8" r="T190">
         <v>100.0</v>
@@ -32135,10 +32147,10 @@
         <v>25000.0</v>
       </c>
       <c t="s" s="3" r="W190">
-        <v>2458</v>
+        <v>2460</v>
       </c>
       <c t="s" s="3" r="X190">
-        <v>2459</v>
+        <v>2461</v>
       </c>
       <c s="8" r="Y190">
         <v>100.0</v>
@@ -32172,13 +32184,13 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="AR190">
-        <v>2460</v>
+        <v>2462</v>
       </c>
       <c s="8" r="AS190">
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="AT190">
-        <v>2461</v>
+        <v>2463</v>
       </c>
       <c s="7" r="AU190"/>
       <c s="7" r="AV190"/>
@@ -32217,42 +32229,42 @@
     </row>
     <row r="191">
       <c t="s" s="3" r="A191">
-        <v>2462</v>
+        <v>2464</v>
       </c>
       <c s="2" r="B191"/>
       <c t="s" s="3" r="C191">
-        <v>2463</v>
+        <v>2465</v>
       </c>
       <c s="2" r="D191"/>
       <c t="s" s="11" r="E191">
-        <v>2464</v>
+        <v>2466</v>
       </c>
       <c t="s" s="3" r="F191">
-        <v>2465</v>
+        <v>2467</v>
       </c>
       <c t="s" s="3" r="G191">
-        <v>2466</v>
+        <v>2468</v>
       </c>
       <c t="s" s="3" r="H191">
-        <v>2467</v>
+        <v>2469</v>
       </c>
       <c t="s" s="3" r="I191">
-        <v>2468</v>
+        <v>2470</v>
       </c>
       <c t="s" s="3" r="J191">
-        <v>2469</v>
+        <v>2471</v>
       </c>
       <c t="s" s="3" r="K191">
-        <v>2470</v>
+        <v>2472</v>
       </c>
       <c t="s" s="3" r="L191">
-        <v>2471</v>
+        <v>2473</v>
       </c>
       <c t="s" s="3" r="M191">
-        <v>2472</v>
+        <v>2474</v>
       </c>
       <c t="s" s="3" r="N191">
-        <v>2473</v>
+        <v>2475</v>
       </c>
       <c s="7" r="O191"/>
       <c s="8" r="P191">
@@ -32262,10 +32274,10 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="R191">
-        <v>2474</v>
+        <v>2476</v>
       </c>
       <c t="s" s="3" r="S191">
-        <v>2475</v>
+        <v>2477</v>
       </c>
       <c s="8" r="T191">
         <v>100.0</v>
@@ -32277,10 +32289,10 @@
         <v>45670.0</v>
       </c>
       <c t="s" s="3" r="W191">
-        <v>2476</v>
+        <v>2478</v>
       </c>
       <c t="s" s="3" r="X191">
-        <v>2477</v>
+        <v>2479</v>
       </c>
       <c s="8" r="Y191">
         <v>100.0</v>
@@ -32314,13 +32326,13 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="AR191">
-        <v>2478</v>
+        <v>2480</v>
       </c>
       <c s="8" r="AS191">
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="AT191">
-        <v>2479</v>
+        <v>2481</v>
       </c>
       <c s="7" r="AU191"/>
       <c s="7" r="AV191"/>
@@ -32356,47 +32368,47 @@
       <c s="7" r="BL191"/>
       <c s="7" r="BM191"/>
       <c t="s" s="15" r="BN191">
-        <v>2480</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="192">
       <c t="s" s="3" r="A192">
-        <v>2481</v>
+        <v>2483</v>
       </c>
       <c s="2" r="B192"/>
       <c t="s" s="3" r="C192">
-        <v>2482</v>
+        <v>2484</v>
       </c>
       <c s="2" r="D192"/>
       <c t="s" s="31" r="E192">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c t="s" s="32" r="F192">
-        <v>2484</v>
+        <v>2486</v>
       </c>
       <c t="s" s="3" r="G192">
-        <v>2485</v>
+        <v>2487</v>
       </c>
       <c t="s" s="3" r="H192">
-        <v>2486</v>
+        <v>2488</v>
       </c>
       <c t="s" s="3" r="I192">
-        <v>2487</v>
+        <v>2489</v>
       </c>
       <c t="s" s="3" r="J192">
-        <v>2488</v>
+        <v>2490</v>
       </c>
       <c t="s" s="3" r="K192">
-        <v>2489</v>
+        <v>2491</v>
       </c>
       <c t="s" s="3" r="L192">
-        <v>2490</v>
+        <v>2492</v>
       </c>
       <c t="s" s="3" r="M192">
-        <v>2491</v>
+        <v>2493</v>
       </c>
       <c t="s" s="3" r="N192">
-        <v>2492</v>
+        <v>2494</v>
       </c>
       <c s="7" r="O192"/>
       <c s="8" r="P192">
@@ -32406,10 +32418,10 @@
         <v>89000.0</v>
       </c>
       <c t="s" s="3" r="R192">
-        <v>2493</v>
+        <v>2495</v>
       </c>
       <c t="s" s="3" r="S192">
-        <v>2494</v>
+        <v>2496</v>
       </c>
       <c s="8" r="T192">
         <v>100.0</v>
@@ -32421,10 +32433,10 @@
         <v>45000.0</v>
       </c>
       <c t="s" s="3" r="W192">
-        <v>2495</v>
+        <v>2497</v>
       </c>
       <c t="s" s="3" r="X192">
-        <v>2496</v>
+        <v>2498</v>
       </c>
       <c s="8" r="Y192">
         <v>100.0</v>
@@ -32466,13 +32478,13 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="AR192">
-        <v>2497</v>
+        <v>2499</v>
       </c>
       <c s="8" r="AS192">
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="AT192">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c s="8" r="AU192">
         <v>0.0</v>
@@ -32481,7 +32493,7 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="AW192">
-        <v>2499</v>
+        <v>2501</v>
       </c>
       <c s="7" r="AX192"/>
       <c s="7" r="AY192"/>
@@ -32531,42 +32543,42 @@
     </row>
     <row r="193">
       <c t="s" s="3" r="A193">
-        <v>2500</v>
+        <v>2502</v>
       </c>
       <c s="2" r="B193"/>
       <c t="s" s="3" r="C193">
-        <v>2501</v>
+        <v>2503</v>
       </c>
       <c s="2" r="D193"/>
       <c t="s" s="31" r="E193">
-        <v>2502</v>
+        <v>2504</v>
       </c>
       <c t="s" s="32" r="F193">
-        <v>2503</v>
+        <v>2505</v>
       </c>
       <c t="s" s="3" r="G193">
-        <v>2504</v>
+        <v>2506</v>
       </c>
       <c t="s" s="3" r="H193">
-        <v>2505</v>
+        <v>2507</v>
       </c>
       <c t="s" s="3" r="I193">
-        <v>2506</v>
+        <v>2508</v>
       </c>
       <c t="s" s="3" r="J193">
-        <v>2507</v>
+        <v>2509</v>
       </c>
       <c t="s" s="3" r="K193">
-        <v>2508</v>
+        <v>2510</v>
       </c>
       <c t="s" s="3" r="L193">
-        <v>2509</v>
+        <v>2511</v>
       </c>
       <c t="s" s="3" r="M193">
-        <v>2510</v>
+        <v>2512</v>
       </c>
       <c t="s" s="3" r="N193">
-        <v>2511</v>
+        <v>2513</v>
       </c>
       <c s="7" r="O193"/>
       <c s="8" r="P193">
@@ -32576,10 +32588,10 @@
         <v>89000.0</v>
       </c>
       <c t="s" s="3" r="R193">
-        <v>2512</v>
+        <v>2514</v>
       </c>
       <c t="s" s="3" r="S193">
-        <v>2513</v>
+        <v>2515</v>
       </c>
       <c s="8" r="T193">
         <v>100.0</v>
@@ -32591,10 +32603,10 @@
         <v>45000.0</v>
       </c>
       <c t="s" s="3" r="W193">
-        <v>2514</v>
+        <v>2516</v>
       </c>
       <c t="s" s="3" r="X193">
-        <v>2515</v>
+        <v>2517</v>
       </c>
       <c s="8" r="Y193">
         <v>100.0</v>
@@ -32636,13 +32648,13 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="AR193">
-        <v>2516</v>
+        <v>2518</v>
       </c>
       <c s="8" r="AS193">
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="AT193">
-        <v>2517</v>
+        <v>2519</v>
       </c>
       <c s="8" r="AU193">
         <v>0.0</v>
@@ -32651,7 +32663,7 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="AW193">
-        <v>2518</v>
+        <v>2520</v>
       </c>
       <c s="7" r="AX193"/>
       <c s="7" r="AY193"/>
@@ -32701,42 +32713,42 @@
     </row>
     <row r="194">
       <c t="s" s="3" r="A194">
-        <v>2519</v>
+        <v>2521</v>
       </c>
       <c s="2" r="B194"/>
       <c t="s" s="3" r="C194">
-        <v>2520</v>
+        <v>2522</v>
       </c>
       <c s="2" r="D194"/>
       <c t="s" s="31" r="E194">
-        <v>2521</v>
+        <v>2523</v>
       </c>
       <c t="s" s="32" r="F194">
-        <v>2522</v>
+        <v>2524</v>
       </c>
       <c t="s" s="3" r="G194">
-        <v>2523</v>
+        <v>2525</v>
       </c>
       <c t="s" s="3" r="H194">
-        <v>2524</v>
+        <v>2526</v>
       </c>
       <c t="s" s="3" r="I194">
-        <v>2525</v>
+        <v>2527</v>
       </c>
       <c t="s" s="3" r="J194">
-        <v>2526</v>
+        <v>2528</v>
       </c>
       <c t="s" s="3" r="K194">
-        <v>2527</v>
+        <v>2529</v>
       </c>
       <c t="s" s="3" r="L194">
-        <v>2528</v>
+        <v>2530</v>
       </c>
       <c t="s" s="3" r="M194">
-        <v>2529</v>
+        <v>2531</v>
       </c>
       <c t="s" s="3" r="N194">
-        <v>2530</v>
+        <v>2532</v>
       </c>
       <c s="7" r="O194"/>
       <c s="8" r="P194">
@@ -32746,10 +32758,10 @@
         <v>89000.0</v>
       </c>
       <c t="s" s="3" r="R194">
-        <v>2531</v>
+        <v>2533</v>
       </c>
       <c t="s" s="3" r="S194">
-        <v>2532</v>
+        <v>2534</v>
       </c>
       <c s="8" r="T194">
         <v>100.0</v>
@@ -32761,10 +32773,10 @@
         <v>45000.0</v>
       </c>
       <c t="s" s="3" r="W194">
-        <v>2533</v>
+        <v>2535</v>
       </c>
       <c t="s" s="3" r="X194">
-        <v>2534</v>
+        <v>2536</v>
       </c>
       <c s="8" r="Y194">
         <v>100.0</v>
@@ -32806,13 +32818,13 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="AR194">
-        <v>2535</v>
+        <v>2537</v>
       </c>
       <c s="8" r="AS194">
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="AT194">
-        <v>2536</v>
+        <v>2538</v>
       </c>
       <c s="8" r="AU194">
         <v>0.0</v>
@@ -32821,7 +32833,7 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="AW194">
-        <v>2537</v>
+        <v>2539</v>
       </c>
       <c s="7" r="AX194"/>
       <c s="7" r="AY194"/>
@@ -32871,42 +32883,42 @@
     </row>
     <row r="195">
       <c t="s" s="3" r="A195">
-        <v>2538</v>
+        <v>2540</v>
       </c>
       <c s="2" r="B195"/>
       <c t="s" s="3" r="C195">
-        <v>2539</v>
+        <v>2541</v>
       </c>
       <c s="2" r="D195"/>
       <c t="s" s="37" r="E195">
-        <v>2540</v>
+        <v>2542</v>
       </c>
       <c t="s" s="38" r="F195">
-        <v>2541</v>
+        <v>2543</v>
       </c>
       <c t="s" s="3" r="G195">
-        <v>2542</v>
+        <v>2544</v>
       </c>
       <c t="s" s="3" r="H195">
-        <v>2543</v>
+        <v>2545</v>
       </c>
       <c t="s" s="3" r="I195">
-        <v>2544</v>
+        <v>2546</v>
       </c>
       <c t="s" s="3" r="J195">
-        <v>2545</v>
+        <v>2547</v>
       </c>
       <c t="s" s="3" r="K195">
-        <v>2546</v>
+        <v>2548</v>
       </c>
       <c t="s" s="3" r="L195">
-        <v>2547</v>
+        <v>2549</v>
       </c>
       <c t="s" s="3" r="M195">
-        <v>2548</v>
+        <v>2550</v>
       </c>
       <c t="s" s="3" r="N195">
-        <v>2549</v>
+        <v>2551</v>
       </c>
       <c s="7" r="O195"/>
       <c s="8" r="P195">
@@ -32916,10 +32928,10 @@
         <v>89000.0</v>
       </c>
       <c t="s" s="3" r="R195">
-        <v>2550</v>
+        <v>2552</v>
       </c>
       <c t="s" s="3" r="S195">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c s="8" r="T195">
         <v>100.0</v>
@@ -32931,10 +32943,10 @@
         <v>45000.0</v>
       </c>
       <c t="s" s="3" r="W195">
-        <v>2552</v>
+        <v>2554</v>
       </c>
       <c t="s" s="3" r="X195">
-        <v>2553</v>
+        <v>2555</v>
       </c>
       <c s="8" r="Y195">
         <v>100.0</v>
@@ -32976,13 +32988,13 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="AR195">
-        <v>2554</v>
+        <v>2556</v>
       </c>
       <c s="8" r="AS195">
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="AT195">
-        <v>2555</v>
+        <v>2557</v>
       </c>
       <c s="8" r="AU195">
         <v>0.0</v>
@@ -32991,7 +33003,7 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="AW195">
-        <v>2556</v>
+        <v>2558</v>
       </c>
       <c s="7" r="AX195"/>
       <c s="7" r="AY195"/>
@@ -33041,42 +33053,42 @@
     </row>
     <row r="196">
       <c t="s" s="3" r="A196">
-        <v>2557</v>
+        <v>2559</v>
       </c>
       <c s="2" r="B196"/>
       <c t="s" s="3" r="C196">
-        <v>2558</v>
+        <v>2560</v>
       </c>
       <c s="2" r="D196"/>
       <c t="s" s="11" r="E196">
-        <v>2559</v>
+        <v>2561</v>
       </c>
       <c t="s" s="3" r="F196">
-        <v>2560</v>
+        <v>2562</v>
       </c>
       <c t="s" s="3" r="G196">
-        <v>2561</v>
+        <v>2563</v>
       </c>
       <c t="s" s="3" r="H196">
-        <v>2562</v>
+        <v>2564</v>
       </c>
       <c t="s" s="3" r="I196">
-        <v>2563</v>
+        <v>2565</v>
       </c>
       <c t="s" s="3" r="J196">
-        <v>2564</v>
+        <v>2566</v>
       </c>
       <c t="s" s="3" r="K196">
-        <v>2565</v>
+        <v>2567</v>
       </c>
       <c t="s" s="3" r="L196">
-        <v>2566</v>
+        <v>2568</v>
       </c>
       <c t="s" s="3" r="M196">
-        <v>2567</v>
+        <v>2569</v>
       </c>
       <c t="s" s="3" r="N196">
-        <v>2568</v>
+        <v>2570</v>
       </c>
       <c s="7" r="O196"/>
       <c s="8" r="P196">
@@ -33086,10 +33098,10 @@
         <v>120000.0</v>
       </c>
       <c t="s" s="3" r="R196">
-        <v>2569</v>
+        <v>2571</v>
       </c>
       <c t="s" s="3" r="S196">
-        <v>2570</v>
+        <v>2572</v>
       </c>
       <c s="8" r="T196">
         <v>50.0</v>
@@ -33101,10 +33113,10 @@
         <v>45000.0</v>
       </c>
       <c t="s" s="3" r="W196">
-        <v>2571</v>
+        <v>2573</v>
       </c>
       <c t="s" s="3" r="X196">
-        <v>2572</v>
+        <v>2574</v>
       </c>
       <c s="8" r="Y196">
         <v>100.0</v>
@@ -33146,13 +33158,13 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="AR196">
-        <v>2573</v>
+        <v>2575</v>
       </c>
       <c s="8" r="AS196">
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="AT196">
-        <v>2574</v>
+        <v>2576</v>
       </c>
       <c s="8" r="AU196">
         <v>0.0</v>
@@ -33161,7 +33173,7 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="AW196">
-        <v>2575</v>
+        <v>2577</v>
       </c>
       <c s="7" r="AX196"/>
       <c s="7" r="AY196"/>
@@ -33206,47 +33218,47 @@
         <v>0.0</v>
       </c>
       <c t="s" s="15" r="BN196">
-        <v>2576</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="197">
       <c t="s" s="3" r="A197">
-        <v>2577</v>
+        <v>2579</v>
       </c>
       <c s="2" r="B197"/>
       <c t="s" s="3" r="C197">
-        <v>2578</v>
+        <v>2580</v>
       </c>
       <c s="2" r="D197"/>
       <c t="s" s="11" r="E197">
-        <v>2579</v>
+        <v>2581</v>
       </c>
       <c t="s" s="3" r="F197">
-        <v>2580</v>
+        <v>2582</v>
       </c>
       <c t="s" s="3" r="G197">
-        <v>2581</v>
+        <v>2583</v>
       </c>
       <c t="s" s="3" r="H197">
-        <v>2582</v>
+        <v>2584</v>
       </c>
       <c t="s" s="3" r="I197">
-        <v>2583</v>
+        <v>2585</v>
       </c>
       <c t="s" s="3" r="J197">
-        <v>2584</v>
+        <v>2586</v>
       </c>
       <c t="s" s="3" r="K197">
-        <v>2585</v>
+        <v>2587</v>
       </c>
       <c t="s" s="3" r="L197">
-        <v>2586</v>
+        <v>2588</v>
       </c>
       <c t="s" s="3" r="M197">
-        <v>2587</v>
+        <v>2589</v>
       </c>
       <c t="s" s="3" r="N197">
-        <v>2588</v>
+        <v>2590</v>
       </c>
       <c s="7" r="O197"/>
       <c s="8" r="P197">
@@ -33256,10 +33268,10 @@
         <v>220500.0</v>
       </c>
       <c t="s" s="3" r="R197">
-        <v>2589</v>
+        <v>2591</v>
       </c>
       <c t="s" s="3" r="S197">
-        <v>2590</v>
+        <v>2592</v>
       </c>
       <c s="8" r="T197">
         <v>50.0</v>
@@ -33271,10 +33283,10 @@
         <v>195000.0</v>
       </c>
       <c t="s" s="3" r="W197">
-        <v>2591</v>
+        <v>2593</v>
       </c>
       <c t="s" s="3" r="X197">
-        <v>2592</v>
+        <v>2594</v>
       </c>
       <c s="8" r="Y197">
         <v>50.0</v>
@@ -33308,13 +33320,13 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="AR197">
-        <v>2593</v>
+        <v>2595</v>
       </c>
       <c s="8" r="AS197">
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="AT197">
-        <v>2594</v>
+        <v>2596</v>
       </c>
       <c s="7" r="AU197"/>
       <c s="7" r="AV197"/>
@@ -33350,47 +33362,47 @@
       <c s="7" r="BL197"/>
       <c s="7" r="BM197"/>
       <c t="s" s="15" r="BN197">
-        <v>2595</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="198">
       <c t="s" s="3" r="A198">
-        <v>2596</v>
+        <v>2598</v>
       </c>
       <c s="2" r="B198"/>
       <c t="s" s="3" r="C198">
-        <v>2597</v>
+        <v>2599</v>
       </c>
       <c s="2" r="D198"/>
       <c t="s" s="11" r="E198">
-        <v>2598</v>
+        <v>2600</v>
       </c>
       <c t="s" s="3" r="F198">
-        <v>2599</v>
+        <v>2601</v>
       </c>
       <c t="s" s="3" r="G198">
-        <v>2600</v>
+        <v>2602</v>
       </c>
       <c t="s" s="3" r="H198">
-        <v>2601</v>
+        <v>2603</v>
       </c>
       <c t="s" s="3" r="I198">
-        <v>2602</v>
+        <v>2604</v>
       </c>
       <c t="s" s="3" r="J198">
-        <v>2603</v>
+        <v>2605</v>
       </c>
       <c t="s" s="3" r="K198">
-        <v>2604</v>
+        <v>2606</v>
       </c>
       <c t="s" s="3" r="L198">
-        <v>2605</v>
+        <v>2607</v>
       </c>
       <c t="s" s="3" r="M198">
-        <v>2606</v>
+        <v>2608</v>
       </c>
       <c t="s" s="3" r="N198">
-        <v>2607</v>
+        <v>2609</v>
       </c>
       <c s="7" r="O198"/>
       <c s="8" r="P198">
@@ -33400,10 +33412,10 @@
         <v>252000.0</v>
       </c>
       <c t="s" s="3" r="R198">
-        <v>2608</v>
+        <v>2610</v>
       </c>
       <c t="s" s="3" r="S198">
-        <v>2609</v>
+        <v>2611</v>
       </c>
       <c s="8" r="T198">
         <v>35.0</v>
@@ -33415,10 +33427,10 @@
         <v>65000.0</v>
       </c>
       <c t="s" s="3" r="W198">
-        <v>2610</v>
+        <v>2612</v>
       </c>
       <c t="s" s="3" r="X198">
-        <v>2611</v>
+        <v>2613</v>
       </c>
       <c s="8" r="Y198">
         <v>100.0</v>
@@ -33430,10 +33442,10 @@
         <v>71000.0</v>
       </c>
       <c t="s" s="3" r="AB198">
-        <v>2612</v>
+        <v>2614</v>
       </c>
       <c t="s" s="3" r="AC198">
-        <v>2613</v>
+        <v>2615</v>
       </c>
       <c s="8" r="AD198">
         <v>100.0</v>
@@ -33462,13 +33474,13 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="AR198">
-        <v>2614</v>
+        <v>2616</v>
       </c>
       <c s="8" r="AS198">
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="AT198">
-        <v>2615</v>
+        <v>2617</v>
       </c>
       <c s="7" r="AU198"/>
       <c s="7" r="AV198"/>
@@ -33504,47 +33516,47 @@
       <c s="7" r="BL198"/>
       <c s="7" r="BM198"/>
       <c t="s" s="15" r="BN198">
-        <v>2616</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="199">
       <c t="s" s="3" r="A199">
-        <v>2617</v>
+        <v>2619</v>
       </c>
       <c s="2" r="B199"/>
       <c t="s" s="3" r="C199">
-        <v>2618</v>
+        <v>2620</v>
       </c>
       <c s="2" r="D199"/>
       <c t="s" s="11" r="E199">
-        <v>2619</v>
+        <v>2621</v>
       </c>
       <c t="s" s="3" r="F199">
-        <v>2620</v>
+        <v>2622</v>
       </c>
       <c t="s" s="3" r="G199">
-        <v>2621</v>
+        <v>2623</v>
       </c>
       <c t="s" s="3" r="H199">
-        <v>2622</v>
+        <v>2624</v>
       </c>
       <c t="s" s="3" r="I199">
-        <v>2623</v>
+        <v>2625</v>
       </c>
       <c t="s" s="3" r="J199">
-        <v>2624</v>
+        <v>2626</v>
       </c>
       <c t="s" s="3" r="K199">
-        <v>2625</v>
+        <v>2627</v>
       </c>
       <c t="s" s="3" r="L199">
-        <v>2626</v>
+        <v>2628</v>
       </c>
       <c t="s" s="3" r="M199">
-        <v>2627</v>
+        <v>2629</v>
       </c>
       <c t="s" s="3" r="N199">
-        <v>2628</v>
+        <v>2630</v>
       </c>
       <c s="7" r="O199"/>
       <c s="8" r="P199">
@@ -33554,10 +33566,10 @@
         <v>252000.0</v>
       </c>
       <c t="s" s="3" r="R199">
-        <v>2629</v>
+        <v>2631</v>
       </c>
       <c t="s" s="3" r="S199">
-        <v>2630</v>
+        <v>2632</v>
       </c>
       <c s="8" r="T199">
         <v>10.0</v>
@@ -33569,10 +33581,10 @@
         <v>49000.0</v>
       </c>
       <c t="s" s="3" r="W199">
-        <v>2631</v>
+        <v>2633</v>
       </c>
       <c t="s" s="3" r="X199">
-        <v>2632</v>
+        <v>2634</v>
       </c>
       <c s="8" r="Y199">
         <v>100.0</v>
@@ -33584,10 +33596,10 @@
         <v>40000.0</v>
       </c>
       <c t="s" s="3" r="AB199">
-        <v>2633</v>
+        <v>2635</v>
       </c>
       <c t="s" s="3" r="AC199">
-        <v>2634</v>
+        <v>2636</v>
       </c>
       <c s="8" r="AD199">
         <v>50.0</v>
@@ -33616,13 +33628,13 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="AR199">
-        <v>2635</v>
+        <v>2637</v>
       </c>
       <c s="8" r="AS199">
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="AT199">
-        <v>2636</v>
+        <v>2638</v>
       </c>
       <c s="7" r="AU199"/>
       <c s="7" r="AV199"/>
@@ -33658,47 +33670,47 @@
       <c s="7" r="BL199"/>
       <c s="7" r="BM199"/>
       <c t="s" s="15" r="BN199">
-        <v>2637</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="200">
       <c t="s" s="3" r="A200">
-        <v>2638</v>
+        <v>2640</v>
       </c>
       <c s="2" r="B200"/>
       <c t="s" s="3" r="C200">
-        <v>2639</v>
+        <v>2641</v>
       </c>
       <c s="2" r="D200"/>
       <c t="s" s="11" r="E200">
-        <v>2640</v>
+        <v>2642</v>
       </c>
       <c t="s" s="3" r="F200">
-        <v>2641</v>
+        <v>2643</v>
       </c>
       <c t="s" s="3" r="G200">
-        <v>2642</v>
+        <v>2644</v>
       </c>
       <c t="s" s="3" r="H200">
-        <v>2643</v>
+        <v>2645</v>
       </c>
       <c t="s" s="3" r="I200">
-        <v>2644</v>
+        <v>2646</v>
       </c>
       <c t="s" s="3" r="J200">
-        <v>2645</v>
+        <v>2647</v>
       </c>
       <c t="s" s="3" r="K200">
-        <v>2646</v>
+        <v>2648</v>
       </c>
       <c t="s" s="3" r="L200">
-        <v>2647</v>
+        <v>2649</v>
       </c>
       <c t="s" s="3" r="M200">
-        <v>2648</v>
+        <v>2650</v>
       </c>
       <c t="s" s="3" r="N200">
-        <v>2649</v>
+        <v>2651</v>
       </c>
       <c s="7" r="O200"/>
       <c s="8" r="P200">
@@ -33708,10 +33720,10 @@
         <v>252000.0</v>
       </c>
       <c t="s" s="3" r="R200">
-        <v>2650</v>
+        <v>2652</v>
       </c>
       <c t="s" s="3" r="S200">
-        <v>2651</v>
+        <v>2653</v>
       </c>
       <c s="8" r="T200">
         <v>10.0</v>
@@ -33723,10 +33735,10 @@
         <v>49000.0</v>
       </c>
       <c t="s" s="3" r="W200">
-        <v>2652</v>
+        <v>2654</v>
       </c>
       <c t="s" s="3" r="X200">
-        <v>2653</v>
+        <v>2655</v>
       </c>
       <c s="8" r="Y200">
         <v>100.0</v>
@@ -33738,10 +33750,10 @@
         <v>40000.0</v>
       </c>
       <c t="s" s="3" r="AB200">
-        <v>2654</v>
+        <v>2656</v>
       </c>
       <c t="s" s="3" r="AC200">
-        <v>2655</v>
+        <v>2657</v>
       </c>
       <c s="8" r="AD200">
         <v>50.0</v>
@@ -33770,13 +33782,13 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="AR200">
-        <v>2656</v>
+        <v>2658</v>
       </c>
       <c s="8" r="AS200">
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="AT200">
-        <v>2657</v>
+        <v>2659</v>
       </c>
       <c s="7" r="AU200"/>
       <c s="7" r="AV200"/>
@@ -33812,7 +33824,7 @@
       <c s="7" r="BL200"/>
       <c s="7" r="BM200"/>
       <c t="s" s="15" r="BN200">
-        <v>2658</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="201">
@@ -33887,7 +33899,7 @@
       <c s="2" r="A202"/>
       <c s="2" r="B202"/>
       <c t="s" s="6" r="C202">
-        <v>2659</v>
+        <v>2661</v>
       </c>
       <c s="2" r="D202"/>
       <c s="2" r="E202"/>
@@ -33955,45 +33967,45 @@
     </row>
     <row r="203">
       <c t="s" s="3" r="A203">
-        <v>2660</v>
+        <v>2662</v>
       </c>
       <c s="2" r="B203"/>
       <c t="s" s="3" r="C203">
-        <v>2661</v>
+        <v>2663</v>
       </c>
       <c s="2" r="D203"/>
       <c t="s" s="11" r="E203">
-        <v>2662</v>
+        <v>2664</v>
       </c>
       <c t="s" s="3" r="F203">
-        <v>2663</v>
+        <v>2665</v>
       </c>
       <c t="s" s="3" r="G203">
-        <v>2664</v>
+        <v>2666</v>
       </c>
       <c t="s" s="3" r="H203">
-        <v>2665</v>
+        <v>2667</v>
       </c>
       <c t="s" s="3" r="I203">
-        <v>2666</v>
+        <v>2668</v>
       </c>
       <c t="s" s="3" r="J203">
-        <v>2667</v>
+        <v>2669</v>
       </c>
       <c t="s" s="3" r="K203">
-        <v>2668</v>
+        <v>2670</v>
       </c>
       <c t="s" s="3" r="L203">
-        <v>2669</v>
+        <v>2671</v>
       </c>
       <c t="s" s="3" r="M203">
-        <v>2670</v>
+        <v>2672</v>
       </c>
       <c t="s" s="3" r="N203">
-        <v>2671</v>
+        <v>2673</v>
       </c>
       <c t="s" s="3" r="O203">
-        <v>2672</v>
+        <v>2674</v>
       </c>
       <c s="8" r="P203">
         <v>0.0</v>
@@ -34002,10 +34014,10 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="R203">
-        <v>2673</v>
+        <v>2675</v>
       </c>
       <c t="s" s="3" r="S203">
-        <v>2674</v>
+        <v>2676</v>
       </c>
       <c s="8" r="T203">
         <v>100.0</v>
@@ -34072,50 +34084,50 @@
       <c s="7" r="BL203"/>
       <c s="7" r="BM203"/>
       <c t="s" s="15" r="BN203">
-        <v>2675</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="204">
       <c t="s" s="3" r="A204">
-        <v>2676</v>
+        <v>2678</v>
       </c>
       <c s="2" r="B204"/>
       <c t="s" s="3" r="C204">
-        <v>2677</v>
+        <v>2679</v>
       </c>
       <c s="2" r="D204"/>
       <c t="s" s="11" r="E204">
-        <v>2678</v>
+        <v>2680</v>
       </c>
       <c t="s" s="3" r="F204">
-        <v>2679</v>
+        <v>2681</v>
       </c>
       <c t="s" s="3" r="G204">
-        <v>2680</v>
+        <v>2682</v>
       </c>
       <c t="s" s="3" r="H204">
-        <v>2681</v>
+        <v>2683</v>
       </c>
       <c t="s" s="3" r="I204">
-        <v>2682</v>
+        <v>2684</v>
       </c>
       <c t="s" s="3" r="J204">
-        <v>2683</v>
+        <v>2685</v>
       </c>
       <c t="s" s="3" r="K204">
-        <v>2684</v>
+        <v>2686</v>
       </c>
       <c t="s" s="3" r="L204">
-        <v>2685</v>
+        <v>2687</v>
       </c>
       <c t="s" s="3" r="M204">
-        <v>2686</v>
+        <v>2688</v>
       </c>
       <c t="s" s="3" r="N204">
-        <v>2687</v>
+        <v>2689</v>
       </c>
       <c t="s" s="3" r="O204">
-        <v>2688</v>
+        <v>2690</v>
       </c>
       <c s="8" r="P204">
         <v>0.0</v>
@@ -34124,10 +34136,10 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="R204">
-        <v>2689</v>
+        <v>2691</v>
       </c>
       <c t="s" s="3" r="S204">
-        <v>2690</v>
+        <v>2692</v>
       </c>
       <c s="8" r="T204">
         <v>100.0</v>
@@ -34194,50 +34206,50 @@
       <c s="7" r="BL204"/>
       <c s="7" r="BM204"/>
       <c t="s" s="15" r="BN204">
-        <v>2691</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="205">
       <c t="s" s="3" r="A205">
-        <v>2692</v>
+        <v>2694</v>
       </c>
       <c s="2" r="B205"/>
       <c t="s" s="3" r="C205">
-        <v>2693</v>
+        <v>2695</v>
       </c>
       <c s="2" r="D205"/>
       <c t="s" s="11" r="E205">
-        <v>2694</v>
+        <v>2696</v>
       </c>
       <c t="s" s="3" r="F205">
-        <v>2695</v>
+        <v>2697</v>
       </c>
       <c t="s" s="3" r="G205">
-        <v>2696</v>
+        <v>2698</v>
       </c>
       <c t="s" s="3" r="H205">
-        <v>2697</v>
+        <v>2699</v>
       </c>
       <c t="s" s="3" r="I205">
-        <v>2698</v>
+        <v>2700</v>
       </c>
       <c t="s" s="3" r="J205">
-        <v>2699</v>
+        <v>2701</v>
       </c>
       <c t="s" s="3" r="K205">
-        <v>2700</v>
+        <v>2702</v>
       </c>
       <c t="s" s="3" r="L205">
-        <v>2701</v>
+        <v>2703</v>
       </c>
       <c t="s" s="3" r="M205">
-        <v>2702</v>
+        <v>2704</v>
       </c>
       <c t="s" s="3" r="N205">
-        <v>2703</v>
+        <v>2705</v>
       </c>
       <c t="s" s="3" r="O205">
-        <v>2704</v>
+        <v>2706</v>
       </c>
       <c s="8" r="P205">
         <v>0.0</v>
@@ -34246,10 +34258,10 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="R205">
-        <v>2705</v>
+        <v>2707</v>
       </c>
       <c t="s" s="3" r="S205">
-        <v>2706</v>
+        <v>2708</v>
       </c>
       <c s="8" r="T205">
         <v>100.0</v>
@@ -34316,50 +34328,50 @@
       <c s="7" r="BL205"/>
       <c s="7" r="BM205"/>
       <c t="s" s="15" r="BN205">
-        <v>2707</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="206">
       <c t="s" s="3" r="A206">
-        <v>2708</v>
+        <v>2710</v>
       </c>
       <c s="2" r="B206"/>
       <c t="s" s="3" r="C206">
-        <v>2709</v>
+        <v>2711</v>
       </c>
       <c s="2" r="D206"/>
       <c t="s" s="11" r="E206">
-        <v>2710</v>
+        <v>2712</v>
       </c>
       <c t="s" s="3" r="F206">
-        <v>2711</v>
+        <v>2713</v>
       </c>
       <c t="s" s="3" r="G206">
-        <v>2712</v>
+        <v>2714</v>
       </c>
       <c t="s" s="3" r="H206">
-        <v>2713</v>
+        <v>2715</v>
       </c>
       <c t="s" s="3" r="I206">
-        <v>2714</v>
+        <v>2716</v>
       </c>
       <c t="s" s="3" r="J206">
-        <v>2715</v>
+        <v>2717</v>
       </c>
       <c t="s" s="3" r="K206">
-        <v>2716</v>
+        <v>2718</v>
       </c>
       <c t="s" s="3" r="L206">
-        <v>2717</v>
+        <v>2719</v>
       </c>
       <c t="s" s="3" r="M206">
-        <v>2718</v>
+        <v>2720</v>
       </c>
       <c t="s" s="3" r="N206">
-        <v>2719</v>
+        <v>2721</v>
       </c>
       <c t="s" s="3" r="O206">
-        <v>2720</v>
+        <v>2722</v>
       </c>
       <c s="8" r="P206">
         <v>0.0</v>
@@ -34368,10 +34380,10 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="R206">
-        <v>2721</v>
+        <v>2723</v>
       </c>
       <c t="s" s="3" r="S206">
-        <v>2722</v>
+        <v>2724</v>
       </c>
       <c s="8" r="T206">
         <v>100.0</v>
@@ -34438,50 +34450,50 @@
       <c s="7" r="BL206"/>
       <c s="7" r="BM206"/>
       <c t="s" s="15" r="BN206">
-        <v>2723</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="207">
       <c t="s" s="3" r="A207">
-        <v>2724</v>
+        <v>2726</v>
       </c>
       <c s="2" r="B207"/>
       <c t="s" s="3" r="C207">
-        <v>2725</v>
+        <v>2727</v>
       </c>
       <c s="2" r="D207"/>
       <c t="s" s="11" r="E207">
-        <v>2726</v>
+        <v>2728</v>
       </c>
       <c t="s" s="3" r="F207">
-        <v>2727</v>
+        <v>2729</v>
       </c>
       <c t="s" s="3" r="G207">
-        <v>2728</v>
+        <v>2730</v>
       </c>
       <c t="s" s="3" r="H207">
-        <v>2729</v>
+        <v>2731</v>
       </c>
       <c t="s" s="3" r="I207">
-        <v>2730</v>
+        <v>2732</v>
       </c>
       <c t="s" s="3" r="J207">
-        <v>2731</v>
+        <v>2733</v>
       </c>
       <c t="s" s="3" r="K207">
-        <v>2732</v>
+        <v>2734</v>
       </c>
       <c t="s" s="3" r="L207">
-        <v>2733</v>
+        <v>2735</v>
       </c>
       <c t="s" s="3" r="M207">
-        <v>2734</v>
+        <v>2736</v>
       </c>
       <c t="s" s="3" r="N207">
-        <v>2735</v>
+        <v>2737</v>
       </c>
       <c t="s" s="3" r="O207">
-        <v>2736</v>
+        <v>2738</v>
       </c>
       <c s="8" r="P207">
         <v>0.0</v>
@@ -34490,10 +34502,10 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="R207">
-        <v>2737</v>
+        <v>2739</v>
       </c>
       <c t="s" s="3" r="S207">
-        <v>2738</v>
+        <v>2740</v>
       </c>
       <c s="8" r="T207">
         <v>100.0</v>
@@ -34568,50 +34580,50 @@
       <c s="7" r="BL207"/>
       <c s="7" r="BM207"/>
       <c t="s" s="15" r="BN207">
-        <v>2739</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="208">
       <c t="s" s="3" r="A208">
-        <v>2740</v>
+        <v>2742</v>
       </c>
       <c s="2" r="B208"/>
       <c t="s" s="3" r="C208">
-        <v>2741</v>
+        <v>2743</v>
       </c>
       <c s="2" r="D208"/>
       <c t="s" s="11" r="E208">
-        <v>2742</v>
+        <v>2744</v>
       </c>
       <c t="s" s="3" r="F208">
-        <v>2743</v>
+        <v>2745</v>
       </c>
       <c t="s" s="3" r="G208">
-        <v>2744</v>
+        <v>2746</v>
       </c>
       <c t="s" s="3" r="H208">
-        <v>2745</v>
+        <v>2747</v>
       </c>
       <c t="s" s="3" r="I208">
-        <v>2746</v>
+        <v>2748</v>
       </c>
       <c t="s" s="3" r="J208">
-        <v>2747</v>
+        <v>2749</v>
       </c>
       <c t="s" s="3" r="K208">
-        <v>2748</v>
+        <v>2750</v>
       </c>
       <c t="s" s="3" r="L208">
-        <v>2749</v>
+        <v>2751</v>
       </c>
       <c t="s" s="3" r="M208">
-        <v>2750</v>
+        <v>2752</v>
       </c>
       <c t="s" s="3" r="N208">
-        <v>2751</v>
+        <v>2753</v>
       </c>
       <c t="s" s="3" r="O208">
-        <v>2752</v>
+        <v>2754</v>
       </c>
       <c s="8" r="P208">
         <v>0.0</v>
@@ -34620,10 +34632,10 @@
         <v>0.0</v>
       </c>
       <c t="s" s="3" r="R208">
-        <v>2753</v>
+        <v>2755</v>
       </c>
       <c t="s" s="3" r="S208">
-        <v>2754</v>
+        <v>2756</v>
       </c>
       <c s="8" r="T208">
         <v>100.0</v>
@@ -34698,50 +34710,50 @@
       <c s="7" r="BL208"/>
       <c s="7" r="BM208"/>
       <c t="s" s="15" r="BN208">
-        <v>2755</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="209">
       <c t="s" s="3" r="A209">
-        <v>2756</v>
+        <v>2758</v>
       </c>
       <c s="2" r="B209"/>
       <c t="s" s="3" r="C209">
-        <v>2757</v>
+        <v>2759</v>
       </c>
       <c s="2" r="D209"/>
       <c t="s" s="11" r="E209">
-        <v>2758</v>
+        <v>2760</v>
       </c>
       <c t="s" s="3" r="F209">
-        <v>2759</v>
+        <v>2761</v>
       </c>
       <c t="s" s="3" r="G209">
-        <v>2760</v>
+        <v>2762</v>
       </c>
       <c t="s" s="3" r="H209">
-        <v>2761</v>
+        <v>2763</v>
       </c>
       <c t="s" s="3" r="I209">
-        <v>2762</v>
+        <v>2764</v>
       </c>
       <c t="s" s="3" r="J209">
-        <v>2763</v>
+        <v>2765</v>
       </c>
       <c t="s" s="3" r="K209">
-        <v>2764</v>
+        <v>2766</v>
       </c>
       <c t="s" s="3" r="L209">
-        <v>2765</v>
+        <v>2767</v>
       </c>
       <c t="s" s="3" r="M209">
-        <v>2766</v>
+        <v>2768</v>
       </c>
       <c t="s" s="3" r="N209">
-        <v>2767</v>
+        <v>2769</v>
       </c>
       <c t="s" s="3" r="O209">
-        <v>2768</v>
+        <v>2770</v>
       </c>
       <c s="8" r="P209">
         <v>156000.0</v>
@@ -34750,10 +34762,10 @@
         <v>89000.0</v>
       </c>
       <c t="s" s="3" r="R209">
-        <v>2769</v>
+        <v>2771</v>
       </c>
       <c t="s" s="3" r="S209">
-        <v>2770</v>
+        <v>2772</v>
       </c>
       <c s="8" r="T209">
         <v>100.0</v>
@@ -34765,10 +34777,10 @@
         <v>45000.0</v>
       </c>
       <c t="s" s="3" r="W209">
-        <v>2771</v>
+        <v>2773</v>
       </c>
       <c t="s" s="3" r="X209">
-        <v>2772</v>
+        <v>2774</v>
       </c>
       <c s="8" r="Y209">
         <v>100.0</v>
@@ -34838,50 +34850,50 @@
       <c s="7" r="BL209"/>
       <c s="7" r="BM209"/>
       <c t="s" s="15" r="BN209">
-        <v>2773</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="210">
       <c t="s" s="3" r="A210">
-        <v>2774</v>
+        <v>2776</v>
       </c>
       <c s="2" r="B210"/>
       <c t="s" s="3" r="C210">
-        <v>2775</v>
+        <v>2777</v>
       </c>
       <c s="2" r="D210"/>
       <c t="s" s="11" r="E210">
-        <v>2776</v>
+        <v>2778</v>
       </c>
       <c t="s" s="3" r="F210">
-        <v>2777</v>
+        <v>2779</v>
       </c>
       <c t="s" s="3" r="G210">
-        <v>2778</v>
+        <v>2780</v>
       </c>
       <c t="s" s="3" r="H210">
-        <v>2779</v>
+        <v>2781</v>
       </c>
       <c t="s" s="3" r="I210">
-        <v>2780</v>
+        <v>2782</v>
       </c>
       <c t="s" s="3" r="J210">
-        <v>2781</v>
+        <v>2783</v>
       </c>
       <c t="s" s="3" r="K210">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c t="s" s="3" r="L210">
-        <v>2783</v>
+        <v>2785</v>
       </c>
       <c t="s" s="3" r="M210">
-        <v>2784</v>
+        <v>2786</v>
       </c>
       <c t="s" s="3" r="N210">
-        <v>2785</v>
+        <v>2787</v>
       </c>
       <c t="s" s="3" r="O210">
-        <v>2786</v>
+        <v>2788</v>
       </c>
       <c s="8" r="P210">
         <v>156000.0</v>
@@ -34890,10 +34902,10 @@
         <v>89000.0</v>
       </c>
       <c t="s" s="3" r="R210">
-        <v>2787</v>
+        <v>2789</v>
       </c>
       <c t="s" s="3" r="S210">
-        <v>2788</v>
+        <v>2790</v>
       </c>
       <c s="8" r="T210">
         <v>100.0</v>
@@ -34905,10 +34917,10 @@
         <v>45000.0</v>
       </c>
       <c t="s" s="3" r="W210">
-        <v>2789</v>
+        <v>2791</v>
       </c>
       <c t="s" s="3" r="X210">
-        <v>2790</v>
+        <v>2792</v>
       </c>
       <c s="8" r="Y210">
         <v>100.0</v>
@@ -34978,45 +34990,45 @@
       <c s="7" r="BL210"/>
       <c s="7" r="BM210"/>
       <c t="s" s="15" r="BN210">
-        <v>2791</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="212">
       <c t="s" s="39" r="A212">
-        <v>2792</v>
+        <v>2794</v>
       </c>
       <c t="s" s="39" r="C212">
-        <v>2793</v>
+        <v>2795</v>
       </c>
       <c t="s" s="40" r="E212">
-        <v>2794</v>
+        <v>2796</v>
       </c>
       <c t="s" s="40" r="F212">
-        <v>2795</v>
+        <v>2797</v>
       </c>
       <c t="s" s="39" r="G212">
-        <v>2796</v>
+        <v>2798</v>
       </c>
       <c t="s" s="39" r="H212">
-        <v>2797</v>
+        <v>2799</v>
       </c>
       <c t="s" s="39" r="I212">
-        <v>2798</v>
+        <v>2800</v>
       </c>
       <c t="s" s="39" r="J212">
-        <v>2799</v>
+        <v>2801</v>
       </c>
       <c t="s" s="39" r="K212">
-        <v>2800</v>
+        <v>2802</v>
       </c>
       <c t="s" s="39" r="L212">
-        <v>2801</v>
+        <v>2803</v>
       </c>
       <c t="s" s="39" r="M212">
-        <v>2802</v>
+        <v>2804</v>
       </c>
       <c t="s" s="39" r="N212">
-        <v>2803</v>
+        <v>2805</v>
       </c>
       <c s="39" r="P212">
         <v>300000.01</v>
@@ -35025,10 +35037,10 @@
         <v>100000.01</v>
       </c>
       <c t="s" s="39" r="R212">
-        <v>2804</v>
+        <v>2806</v>
       </c>
       <c t="s" s="39" r="S212">
-        <v>2805</v>
+        <v>2807</v>
       </c>
       <c s="39" r="T212">
         <v>100.0</v>
@@ -35061,13 +35073,13 @@
         <v>0.0</v>
       </c>
       <c t="s" s="39" r="AR212">
-        <v>2806</v>
+        <v>2808</v>
       </c>
       <c s="39" r="AS212">
         <v>0.0</v>
       </c>
       <c t="s" s="39" r="AT212">
-        <v>2807</v>
+        <v>2809</v>
       </c>
       <c s="39" r="AZ212">
         <v>0.0</v>
@@ -35093,40 +35105,40 @@
     </row>
     <row r="213">
       <c t="s" s="39" r="A213">
-        <v>2808</v>
+        <v>2810</v>
       </c>
       <c t="s" s="39" r="C213">
-        <v>2809</v>
+        <v>2811</v>
       </c>
       <c t="s" s="40" r="E213">
-        <v>2810</v>
+        <v>2812</v>
       </c>
       <c t="s" s="40" r="F213">
-        <v>2811</v>
+        <v>2813</v>
       </c>
       <c t="s" s="39" r="G213">
-        <v>2812</v>
+        <v>2814</v>
       </c>
       <c t="s" s="39" r="H213">
-        <v>2813</v>
+        <v>2815</v>
       </c>
       <c t="s" s="39" r="I213">
-        <v>2814</v>
+        <v>2816</v>
       </c>
       <c t="s" s="39" r="J213">
-        <v>2815</v>
+        <v>2817</v>
       </c>
       <c t="s" s="39" r="K213">
-        <v>2816</v>
+        <v>2818</v>
       </c>
       <c t="s" s="39" r="L213">
-        <v>2817</v>
+        <v>2819</v>
       </c>
       <c t="s" s="39" r="M213">
-        <v>2818</v>
+        <v>2820</v>
       </c>
       <c t="s" s="39" r="N213">
-        <v>2819</v>
+        <v>2821</v>
       </c>
       <c s="39" r="P213">
         <v>300000.0</v>
@@ -35135,10 +35147,10 @@
         <v>100000.0</v>
       </c>
       <c t="s" s="39" r="R213">
-        <v>2820</v>
+        <v>2822</v>
       </c>
       <c t="s" s="39" r="S213">
-        <v>2821</v>
+        <v>2823</v>
       </c>
       <c s="39" r="T213">
         <v>100.0</v>
@@ -35171,13 +35183,13 @@
         <v>0.0</v>
       </c>
       <c t="s" s="39" r="AR213">
-        <v>2822</v>
+        <v>2824</v>
       </c>
       <c s="39" r="AS213">
         <v>0.0</v>
       </c>
       <c t="s" s="39" r="AT213">
-        <v>2823</v>
+        <v>2825</v>
       </c>
       <c s="39" r="AZ213">
         <v>0.0</v>
@@ -35203,43 +35215,43 @@
     </row>
     <row r="214">
       <c t="s" s="39" r="A214">
-        <v>2824</v>
+        <v>2826</v>
       </c>
       <c t="s" s="39" r="C214">
-        <v>2825</v>
+        <v>2827</v>
       </c>
       <c t="s" s="40" r="E214">
-        <v>2826</v>
+        <v>2828</v>
       </c>
       <c t="s" s="40" r="F214">
-        <v>2827</v>
+        <v>2829</v>
       </c>
       <c t="s" s="39" r="G214">
-        <v>2828</v>
+        <v>2830</v>
       </c>
       <c t="s" s="39" r="H214">
-        <v>2829</v>
+        <v>2831</v>
       </c>
       <c t="s" s="39" r="I214">
-        <v>2830</v>
+        <v>2832</v>
       </c>
       <c t="s" s="39" r="J214">
-        <v>2831</v>
+        <v>2833</v>
       </c>
       <c t="s" s="39" r="K214">
-        <v>2832</v>
+        <v>2834</v>
       </c>
       <c t="s" s="39" r="L214">
-        <v>2833</v>
+        <v>2835</v>
       </c>
       <c t="s" s="39" r="M214">
-        <v>2834</v>
+        <v>2836</v>
       </c>
       <c t="s" s="39" r="N214">
-        <v>2835</v>
+        <v>2837</v>
       </c>
       <c t="s" s="39" r="O214">
-        <v>2836</v>
+        <v>2838</v>
       </c>
       <c s="39" r="P214">
         <v>300000.01</v>
@@ -35248,10 +35260,10 @@
         <v>100000.01</v>
       </c>
       <c t="s" s="39" r="R214">
-        <v>2837</v>
+        <v>2839</v>
       </c>
       <c t="s" s="39" r="S214">
-        <v>2838</v>
+        <v>2840</v>
       </c>
       <c s="39" r="T214">
         <v>100.0</v>
@@ -35283,43 +35295,43 @@
     </row>
     <row r="215">
       <c t="s" s="39" r="A215">
-        <v>2839</v>
+        <v>2841</v>
       </c>
       <c t="s" s="39" r="C215">
-        <v>2840</v>
+        <v>2842</v>
       </c>
       <c t="s" s="40" r="E215">
-        <v>2841</v>
+        <v>2843</v>
       </c>
       <c t="s" s="40" r="F215">
-        <v>2842</v>
+        <v>2844</v>
       </c>
       <c t="s" s="39" r="G215">
-        <v>2843</v>
+        <v>2845</v>
       </c>
       <c t="s" s="39" r="H215">
-        <v>2844</v>
+        <v>2846</v>
       </c>
       <c t="s" s="39" r="I215">
-        <v>2845</v>
+        <v>2847</v>
       </c>
       <c t="s" s="39" r="J215">
-        <v>2846</v>
+        <v>2848</v>
       </c>
       <c t="s" s="39" r="K215">
-        <v>2847</v>
+        <v>2849</v>
       </c>
       <c t="s" s="39" r="L215">
-        <v>2848</v>
+        <v>2850</v>
       </c>
       <c t="s" s="39" r="M215">
-        <v>2849</v>
+        <v>2851</v>
       </c>
       <c t="s" s="39" r="N215">
-        <v>2850</v>
+        <v>2852</v>
       </c>
       <c t="s" s="39" r="O215">
-        <v>2851</v>
+        <v>2853</v>
       </c>
       <c s="39" r="P215">
         <v>300000.0</v>
@@ -35328,10 +35340,10 @@
         <v>100000.0</v>
       </c>
       <c t="s" s="39" r="R215">
-        <v>2852</v>
+        <v>2854</v>
       </c>
       <c t="s" s="39" r="S215">
-        <v>2853</v>
+        <v>2855</v>
       </c>
       <c s="39" r="T215">
         <v>100.0</v>
@@ -35363,40 +35375,40 @@
     </row>
     <row r="216">
       <c t="s" s="39" r="A216">
-        <v>2854</v>
+        <v>2856</v>
       </c>
       <c t="s" s="39" r="C216">
-        <v>2855</v>
+        <v>2857</v>
       </c>
       <c t="s" s="40" r="E216">
-        <v>2856</v>
+        <v>2858</v>
       </c>
       <c t="s" s="40" r="F216">
-        <v>2857</v>
+        <v>2859</v>
       </c>
       <c t="s" s="39" r="G216">
-        <v>2858</v>
+        <v>2860</v>
       </c>
       <c t="s" s="39" r="H216">
-        <v>2859</v>
+        <v>2861</v>
       </c>
       <c t="s" s="39" r="I216">
-        <v>2860</v>
+        <v>2862</v>
       </c>
       <c t="s" s="39" r="J216">
-        <v>2861</v>
+        <v>2863</v>
       </c>
       <c t="s" s="39" r="K216">
-        <v>2862</v>
+        <v>2864</v>
       </c>
       <c t="s" s="39" r="L216">
-        <v>2863</v>
+        <v>2865</v>
       </c>
       <c t="s" s="39" r="M216">
-        <v>2864</v>
+        <v>2866</v>
       </c>
       <c t="s" s="39" r="N216">
-        <v>2865</v>
+        <v>2867</v>
       </c>
       <c s="39" r="P216">
         <v>200000.01</v>
@@ -35405,10 +35417,10 @@
         <v>100000.01</v>
       </c>
       <c t="s" s="39" r="R216">
-        <v>2866</v>
+        <v>2868</v>
       </c>
       <c t="s" s="39" r="S216">
-        <v>2867</v>
+        <v>2869</v>
       </c>
       <c s="39" r="T216">
         <v>100.0</v>
@@ -35441,13 +35453,13 @@
         <v>0.0</v>
       </c>
       <c t="s" s="39" r="AR216">
-        <v>2868</v>
+        <v>2870</v>
       </c>
       <c s="39" r="AS216">
         <v>0.0</v>
       </c>
       <c t="s" s="39" r="AT216">
-        <v>2869</v>
+        <v>2871</v>
       </c>
       <c s="39" r="AZ216">
         <v>0.0</v>
@@ -35473,40 +35485,40 @@
     </row>
     <row r="217">
       <c t="s" s="39" r="A217">
-        <v>2870</v>
+        <v>2872</v>
       </c>
       <c t="s" s="39" r="C217">
-        <v>2871</v>
+        <v>2873</v>
       </c>
       <c t="s" s="40" r="E217">
-        <v>2872</v>
+        <v>2874</v>
       </c>
       <c t="s" s="40" r="F217">
-        <v>2873</v>
+        <v>2875</v>
       </c>
       <c t="s" s="39" r="G217">
-        <v>2874</v>
+        <v>2876</v>
       </c>
       <c t="s" s="39" r="H217">
-        <v>2875</v>
+        <v>2877</v>
       </c>
       <c t="s" s="39" r="I217">
-        <v>2876</v>
+        <v>2878</v>
       </c>
       <c t="s" s="39" r="J217">
-        <v>2877</v>
+        <v>2879</v>
       </c>
       <c t="s" s="39" r="K217">
-        <v>2878</v>
+        <v>2880</v>
       </c>
       <c t="s" s="39" r="L217">
-        <v>2879</v>
+        <v>2881</v>
       </c>
       <c t="s" s="39" r="M217">
-        <v>2880</v>
+        <v>2882</v>
       </c>
       <c t="s" s="39" r="N217">
-        <v>2881</v>
+        <v>2883</v>
       </c>
       <c s="39" r="P217">
         <v>200000.0</v>
@@ -35515,10 +35527,10 @@
         <v>100000.0</v>
       </c>
       <c t="s" s="39" r="R217">
-        <v>2882</v>
+        <v>2884</v>
       </c>
       <c t="s" s="39" r="S217">
-        <v>2883</v>
+        <v>2885</v>
       </c>
       <c s="39" r="T217">
         <v>100.0</v>
@@ -35551,13 +35563,13 @@
         <v>0.0</v>
       </c>
       <c t="s" s="39" r="AR217">
-        <v>2884</v>
+        <v>2886</v>
       </c>
       <c s="39" r="AS217">
         <v>0.0</v>
       </c>
       <c t="s" s="39" r="AT217">
-        <v>2885</v>
+        <v>2887</v>
       </c>
       <c s="39" r="AZ217">
         <v>0.0</v>
